--- a/data/instancias/TCC-Instancia-2018-1.xlsx
+++ b/data/instancias/TCC-Instancia-2018-1.xlsx
@@ -14,7 +14,7 @@
     <definedName name="Turmas">Turmas!$A$2:$A$4</definedName>
     <definedName name="Professores">Professores!$B$2:$B$12</definedName>
     <definedName name="Salas">Salas!$B$2:$B$11</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Disciplinas!$D$1:$D$596</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Disciplinas!$A$1:$O$596</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -5187,9 +5187,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="48.0"/>
-    <col customWidth="1" min="4" max="4" width="78.14"/>
-    <col customWidth="1" min="5" max="5" width="35.71"/>
+    <col customWidth="1" min="3" max="3" width="19.14"/>
+    <col customWidth="1" min="4" max="4" width="27.57"/>
+    <col customWidth="1" min="5" max="5" width="21.71"/>
     <col customWidth="1" min="6" max="7" width="10.86"/>
     <col customWidth="1" min="8" max="8" width="9.14"/>
     <col customWidth="1" min="9" max="9" width="7.29"/>
@@ -5252,7 +5252,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" s="9">
         <v>104699.0</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="9">
         <v>104696.0</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" ht="14.25" hidden="1" customHeight="1">
       <c r="A4" s="9">
         <v>104694.0</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" s="9">
         <v>104700.0</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="9">
         <v>104697.0</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" hidden="1" customHeight="1">
       <c r="A7" s="9">
         <v>104698.0</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" hidden="1" customHeight="1">
       <c r="A8" s="9">
         <v>104695.0</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" hidden="1" customHeight="1">
       <c r="A9" s="9">
         <v>99921.0</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" s="9">
         <v>99923.0</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="9">
         <v>99919.0</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="9">
         <v>99924.0</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="9">
         <v>99918.0</v>
       </c>
@@ -6008,7 +6008,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="9">
         <v>99920.0</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="9">
         <v>99928.0</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="9">
         <v>99931.0</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="9">
         <v>99926.0</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="9">
         <v>99929.0</v>
       </c>
@@ -6323,7 +6323,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="9">
         <v>99925.0</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="9">
         <v>99930.0</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="9">
         <v>99927.0</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="9">
         <v>104692.0</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="9">
         <v>104689.0</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="9">
         <v>104687.0</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="9">
         <v>104693.0</v>
       </c>
@@ -6764,7 +6764,7 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="9">
         <v>104690.0</v>
       </c>
@@ -6827,7 +6827,7 @@
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="9">
         <v>104691.0</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="9">
         <v>104688.0</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="9">
         <v>99908.0</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="9">
         <v>99909.0</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="9">
         <v>99906.0</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="9">
         <v>99910.0</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="9">
         <v>99905.0</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="9">
         <v>99907.0</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="9">
         <v>99914.0</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" s="9">
         <v>99917.0</v>
       </c>
@@ -7457,7 +7457,7 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" s="9">
         <v>99912.0</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" s="9">
         <v>99915.0</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" s="9">
         <v>99911.0</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" s="9">
         <v>99916.0</v>
       </c>
@@ -7709,7 +7709,7 @@
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" s="9">
         <v>99913.0</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" ht="14.25" hidden="1" customHeight="1">
       <c r="A42" s="9">
         <v>104954.0</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" s="9">
         <v>104950.0</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" s="9">
         <v>104955.0</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" s="9">
         <v>104952.0</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" s="9">
         <v>104953.0</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="9">
         <v>104951.0</v>
       </c>
@@ -8150,7 +8150,7 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" ht="14.25" hidden="1" customHeight="1">
       <c r="A48" s="9">
         <v>104956.0</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" ht="14.25" hidden="1" customHeight="1">
       <c r="A49" s="9">
         <v>100057.0</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" ht="14.25" hidden="1" customHeight="1">
       <c r="A50" s="9">
         <v>100058.0</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" ht="14.25" hidden="1" customHeight="1">
       <c r="A51" s="9">
         <v>100055.0</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" ht="14.25" hidden="1" customHeight="1">
       <c r="A52" s="9">
         <v>100056.0</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" s="9">
         <v>100052.0</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" s="9">
         <v>100054.0</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="9">
         <v>100053.0</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" s="9">
         <v>100062.0</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" s="9">
         <v>100064.0</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" ht="14.25" hidden="1" customHeight="1">
       <c r="A58" s="9">
         <v>100065.0</v>
       </c>
@@ -8843,7 +8843,7 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" s="9">
         <v>100061.0</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" s="9">
         <v>100063.0</v>
       </c>
@@ -8969,7 +8969,7 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" ht="14.25" hidden="1" customHeight="1">
       <c r="A61" s="9">
         <v>100059.0</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" s="9">
         <v>100060.0</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" s="9">
         <v>100067.0</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" s="9">
         <v>100071.0</v>
       </c>
@@ -9284,7 +9284,7 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" s="9">
         <v>100069.0</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" s="9">
         <v>100070.0</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" s="9">
         <v>100066.0</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" s="9">
         <v>100068.0</v>
       </c>
@@ -9536,7 +9536,7 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="9">
         <v>100074.0</v>
       </c>
@@ -9599,7 +9599,7 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="9">
         <v>100077.0</v>
       </c>
@@ -9662,7 +9662,7 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="9">
         <v>100073.0</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="9">
         <v>100076.0</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="9">
         <v>100078.0</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="W74" s="17"/>
       <c r="X74" s="17"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" s="9">
         <v>100075.0</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" s="9">
         <v>100079.0</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" s="9">
         <v>100085.0</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="9">
         <v>100081.0</v>
       </c>
@@ -10103,7 +10103,7 @@
       <c r="W78" s="17"/>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="9">
         <v>100080.0</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="9">
         <v>100082.0</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="W80" s="17"/>
       <c r="X80" s="17"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="9">
         <v>100083.0</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="W81" s="17"/>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" ht="14.25" hidden="1" customHeight="1">
       <c r="A82" s="9">
         <v>100086.0</v>
       </c>
@@ -10355,7 +10355,7 @@
       <c r="W82" s="17"/>
       <c r="X82" s="17"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" ht="14.25" hidden="1" customHeight="1">
       <c r="A83" s="9">
         <v>100084.0</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="W83" s="17"/>
       <c r="X83" s="17"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" ht="14.25" hidden="1" customHeight="1">
       <c r="A84" s="9">
         <v>100087.0</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="W84" s="17"/>
       <c r="X84" s="17"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" ht="14.25" hidden="1" customHeight="1">
       <c r="A85" s="9">
         <v>100088.0</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="W85" s="17"/>
       <c r="X85" s="17"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" ht="14.25" hidden="1" customHeight="1">
       <c r="A86" s="9">
         <v>100089.0</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="W86" s="17"/>
       <c r="X86" s="17"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" ht="14.25" hidden="1" customHeight="1">
       <c r="A87" s="9">
         <v>100090.0</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="W87" s="17"/>
       <c r="X87" s="17"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" ht="14.25" hidden="1" customHeight="1">
       <c r="A88" s="9">
         <v>100091.0</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="W88" s="17"/>
       <c r="X88" s="17"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" ht="14.25" hidden="1" customHeight="1">
       <c r="A89" s="9">
         <v>100092.0</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="9">
         <v>100093.0</v>
       </c>
@@ -10859,7 +10859,7 @@
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" s="9">
         <v>99039.0</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="W91" s="17"/>
       <c r="X91" s="17"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" s="9">
         <v>99040.0</v>
       </c>
@@ -10985,7 +10985,7 @@
       <c r="W92" s="17"/>
       <c r="X92" s="17"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" s="9">
         <v>99042.0</v>
       </c>
@@ -11048,7 +11048,7 @@
       <c r="W93" s="17"/>
       <c r="X93" s="17"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" s="9">
         <v>99043.0</v>
       </c>
@@ -11111,7 +11111,7 @@
       <c r="W94" s="17"/>
       <c r="X94" s="17"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" s="9">
         <v>99041.0</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="W95" s="17"/>
       <c r="X95" s="17"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" s="9">
         <v>99044.0</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="W96" s="17"/>
       <c r="X96" s="17"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" s="9">
         <v>99045.0</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="W97" s="17"/>
       <c r="X97" s="17"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" ht="14.25" hidden="1" customHeight="1">
       <c r="A98" s="9">
         <v>99047.0</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="W98" s="17"/>
       <c r="X98" s="17"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" ht="14.25" hidden="1" customHeight="1">
       <c r="A99" s="9">
         <v>99046.0</v>
       </c>
@@ -11426,7 +11426,7 @@
       <c r="W99" s="17"/>
       <c r="X99" s="17"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" ht="14.25" hidden="1" customHeight="1">
       <c r="A100" s="9">
         <v>99048.0</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="W100" s="17"/>
       <c r="X100" s="17"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" ht="14.25" hidden="1" customHeight="1">
       <c r="A101" s="9">
         <v>99080.0</v>
       </c>
@@ -11552,7 +11552,7 @@
       <c r="W101" s="17"/>
       <c r="X101" s="17"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" ht="14.25" hidden="1" customHeight="1">
       <c r="A102" s="9">
         <v>99064.0</v>
       </c>
@@ -11615,7 +11615,7 @@
       <c r="W102" s="17"/>
       <c r="X102" s="17"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" ht="14.25" hidden="1" customHeight="1">
       <c r="A103" s="9">
         <v>99059.0</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="W103" s="17"/>
       <c r="X103" s="17"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" ht="14.25" hidden="1" customHeight="1">
       <c r="A104" s="9">
         <v>99094.0</v>
       </c>
@@ -11741,7 +11741,7 @@
       <c r="W104" s="17"/>
       <c r="X104" s="17"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" s="9">
         <v>104703.0</v>
       </c>
@@ -11804,7 +11804,7 @@
       <c r="W105" s="17"/>
       <c r="X105" s="17"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" ht="14.25" hidden="1" customHeight="1">
       <c r="A106" s="9">
         <v>104702.0</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="W106" s="17"/>
       <c r="X106" s="17"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" s="9">
         <v>104705.0</v>
       </c>
@@ -11930,7 +11930,7 @@
       <c r="W107" s="17"/>
       <c r="X107" s="17"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" s="9">
         <v>104701.0</v>
       </c>
@@ -11993,7 +11993,7 @@
       <c r="W108" s="17"/>
       <c r="X108" s="17"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" s="9">
         <v>104704.0</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="W109" s="17"/>
       <c r="X109" s="17"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" s="9">
         <v>99934.0</v>
       </c>
@@ -12119,7 +12119,7 @@
       <c r="W110" s="17"/>
       <c r="X110" s="17"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" s="9">
         <v>99933.0</v>
       </c>
@@ -12182,7 +12182,7 @@
       <c r="W111" s="17"/>
       <c r="X111" s="17"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" s="9">
         <v>99932.0</v>
       </c>
@@ -12245,7 +12245,7 @@
       <c r="W112" s="17"/>
       <c r="X112" s="17"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" s="9">
         <v>99935.0</v>
       </c>
@@ -12308,7 +12308,7 @@
       <c r="W113" s="17"/>
       <c r="X113" s="17"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" s="9">
         <v>99936.0</v>
       </c>
@@ -12371,7 +12371,7 @@
       <c r="W114" s="17"/>
       <c r="X114" s="17"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" s="9">
         <v>99940.0</v>
       </c>
@@ -12434,7 +12434,7 @@
       <c r="W115" s="17"/>
       <c r="X115" s="17"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" s="9">
         <v>99937.0</v>
       </c>
@@ -12497,7 +12497,7 @@
       <c r="W116" s="17"/>
       <c r="X116" s="17"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" s="9">
         <v>99938.0</v>
       </c>
@@ -12560,7 +12560,7 @@
       <c r="W117" s="17"/>
       <c r="X117" s="17"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" s="9">
         <v>99942.0</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="W118" s="17"/>
       <c r="X118" s="17"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" s="9">
         <v>99941.0</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="W119" s="17"/>
       <c r="X119" s="17"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" s="9">
         <v>99939.0</v>
       </c>
@@ -12749,7 +12749,7 @@
       <c r="W120" s="17"/>
       <c r="X120" s="17"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" s="9">
         <v>99943.0</v>
       </c>
@@ -12812,7 +12812,7 @@
       <c r="W121" s="17"/>
       <c r="X121" s="17"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" s="9">
         <v>99945.0</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="W122" s="17"/>
       <c r="X122" s="17"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" s="9">
         <v>99946.0</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="W123" s="17"/>
       <c r="X123" s="17"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" s="9">
         <v>99944.0</v>
       </c>
@@ -13001,7 +13001,7 @@
       <c r="W124" s="17"/>
       <c r="X124" s="17"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" s="9">
         <v>99947.0</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="W125" s="17"/>
       <c r="X125" s="17"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" s="9">
         <v>104708.0</v>
       </c>
@@ -13127,7 +13127,7 @@
       <c r="W126" s="17"/>
       <c r="X126" s="17"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" ht="14.25" hidden="1" customHeight="1">
       <c r="A127" s="9">
         <v>104707.0</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="W127" s="17"/>
       <c r="X127" s="17"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" ht="14.25" hidden="1" customHeight="1">
       <c r="A128" s="9">
         <v>104710.0</v>
       </c>
@@ -13253,7 +13253,7 @@
       <c r="W128" s="17"/>
       <c r="X128" s="17"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" ht="14.25" hidden="1" customHeight="1">
       <c r="A129" s="9">
         <v>104706.0</v>
       </c>
@@ -13316,7 +13316,7 @@
       <c r="W129" s="17"/>
       <c r="X129" s="17"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" ht="14.25" hidden="1" customHeight="1">
       <c r="A130" s="9">
         <v>104709.0</v>
       </c>
@@ -13379,7 +13379,7 @@
       <c r="W130" s="17"/>
       <c r="X130" s="17"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" ht="14.25" hidden="1" customHeight="1">
       <c r="A131" s="9">
         <v>99950.0</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="W131" s="17"/>
       <c r="X131" s="17"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" ht="14.25" hidden="1" customHeight="1">
       <c r="A132" s="9">
         <v>99949.0</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="W132" s="17"/>
       <c r="X132" s="17"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" ht="14.25" hidden="1" customHeight="1">
       <c r="A133" s="9">
         <v>99948.0</v>
       </c>
@@ -13568,7 +13568,7 @@
       <c r="W133" s="21"/>
       <c r="X133" s="21"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" ht="14.25" hidden="1" customHeight="1">
       <c r="A134" s="9">
         <v>99951.0</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="W134" s="17"/>
       <c r="X134" s="17"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" s="9">
         <v>99952.0</v>
       </c>
@@ -13694,7 +13694,7 @@
       <c r="W135" s="17"/>
       <c r="X135" s="17"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" ht="14.25" hidden="1" customHeight="1">
       <c r="A136" s="9">
         <v>99956.0</v>
       </c>
@@ -13757,7 +13757,7 @@
       <c r="W136" s="17"/>
       <c r="X136" s="17"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" ht="14.25" hidden="1" customHeight="1">
       <c r="A137" s="9">
         <v>99953.0</v>
       </c>
@@ -13820,7 +13820,7 @@
       <c r="W137" s="17"/>
       <c r="X137" s="17"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" ht="14.25" hidden="1" customHeight="1">
       <c r="A138" s="9">
         <v>99954.0</v>
       </c>
@@ -13883,7 +13883,7 @@
       <c r="W138" s="17"/>
       <c r="X138" s="17"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" ht="14.25" hidden="1" customHeight="1">
       <c r="A139" s="9">
         <v>99958.0</v>
       </c>
@@ -13946,7 +13946,7 @@
       <c r="W139" s="17"/>
       <c r="X139" s="17"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" ht="14.25" hidden="1" customHeight="1">
       <c r="A140" s="9">
         <v>99957.0</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="W140" s="17"/>
       <c r="X140" s="17"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" ht="14.25" hidden="1" customHeight="1">
       <c r="A141" s="9">
         <v>99955.0</v>
       </c>
@@ -14072,7 +14072,7 @@
       <c r="W141" s="17"/>
       <c r="X141" s="17"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" ht="14.25" hidden="1" customHeight="1">
       <c r="A142" s="9">
         <v>99959.0</v>
       </c>
@@ -14135,7 +14135,7 @@
       <c r="W142" s="17"/>
       <c r="X142" s="17"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" ht="14.25" hidden="1" customHeight="1">
       <c r="A143" s="9">
         <v>99961.0</v>
       </c>
@@ -14198,7 +14198,7 @@
       <c r="W143" s="17"/>
       <c r="X143" s="17"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" ht="14.25" hidden="1" customHeight="1">
       <c r="A144" s="9">
         <v>99962.0</v>
       </c>
@@ -14261,7 +14261,7 @@
       <c r="W144" s="17"/>
       <c r="X144" s="17"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" ht="14.25" hidden="1" customHeight="1">
       <c r="A145" s="9">
         <v>99960.0</v>
       </c>
@@ -14324,7 +14324,7 @@
       <c r="W145" s="17"/>
       <c r="X145" s="17"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" ht="14.25" hidden="1" customHeight="1">
       <c r="A146" s="9">
         <v>99963.0</v>
       </c>
@@ -14387,7 +14387,7 @@
       <c r="W146" s="17"/>
       <c r="X146" s="17"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" ht="14.25" hidden="1" customHeight="1">
       <c r="A147" s="9">
         <v>104847.0</v>
       </c>
@@ -14450,7 +14450,7 @@
       <c r="W147" s="17"/>
       <c r="X147" s="17"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" ht="14.25" hidden="1" customHeight="1">
       <c r="A148" s="9">
         <v>104848.0</v>
       </c>
@@ -14513,7 +14513,7 @@
       <c r="W148" s="17"/>
       <c r="X148" s="17"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" ht="14.25" hidden="1" customHeight="1">
       <c r="A149" s="9">
         <v>104849.0</v>
       </c>
@@ -14576,7 +14576,7 @@
       <c r="W149" s="17"/>
       <c r="X149" s="17"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" ht="14.25" hidden="1" customHeight="1">
       <c r="A150" s="9">
         <v>104850.0</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="W150" s="17"/>
       <c r="X150" s="17"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" ht="14.25" hidden="1" customHeight="1">
       <c r="A151" s="9">
         <v>104851.0</v>
       </c>
@@ -14702,7 +14702,7 @@
       <c r="W151" s="17"/>
       <c r="X151" s="17"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" ht="14.25" hidden="1" customHeight="1">
       <c r="A152" s="9">
         <v>104852.0</v>
       </c>
@@ -14765,7 +14765,7 @@
       <c r="W152" s="17"/>
       <c r="X152" s="17"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" ht="14.25" hidden="1" customHeight="1">
       <c r="A153" s="9">
         <v>104853.0</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="W153" s="17"/>
       <c r="X153" s="17"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" ht="14.25" hidden="1" customHeight="1">
       <c r="A154" s="9">
         <v>99115.0</v>
       </c>
@@ -14891,7 +14891,7 @@
       <c r="W154" s="17"/>
       <c r="X154" s="17"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" ht="14.25" hidden="1" customHeight="1">
       <c r="A155" s="9">
         <v>99118.0</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="W155" s="17"/>
       <c r="X155" s="17"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" ht="14.25" hidden="1" customHeight="1">
       <c r="A156" s="9">
         <v>99117.0</v>
       </c>
@@ -15017,7 +15017,7 @@
       <c r="W156" s="17"/>
       <c r="X156" s="17"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" ht="14.25" hidden="1" customHeight="1">
       <c r="A157" s="9">
         <v>99116.0</v>
       </c>
@@ -15080,7 +15080,7 @@
       <c r="W157" s="17"/>
       <c r="X157" s="17"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" ht="14.25" hidden="1" customHeight="1">
       <c r="A158" s="9">
         <v>99120.0</v>
       </c>
@@ -15143,7 +15143,7 @@
       <c r="W158" s="17"/>
       <c r="X158" s="17"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" ht="14.25" hidden="1" customHeight="1">
       <c r="A159" s="9">
         <v>99114.0</v>
       </c>
@@ -15206,7 +15206,7 @@
       <c r="W159" s="17"/>
       <c r="X159" s="17"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" ht="14.25" hidden="1" customHeight="1">
       <c r="A160" s="9">
         <v>99113.0</v>
       </c>
@@ -15269,7 +15269,7 @@
       <c r="W160" s="17"/>
       <c r="X160" s="17"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" ht="14.25" hidden="1" customHeight="1">
       <c r="A161" s="9">
         <v>99119.0</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="W161" s="17"/>
       <c r="X161" s="17"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" ht="14.25" hidden="1" customHeight="1">
       <c r="A162" s="9">
         <v>106268.0</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="W162" s="17"/>
       <c r="X162" s="17"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" ht="14.25" hidden="1" customHeight="1">
       <c r="A163" s="9">
         <v>99383.0</v>
       </c>
@@ -15458,7 +15458,7 @@
       <c r="W163" s="17"/>
       <c r="X163" s="17"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" ht="14.25" hidden="1" customHeight="1">
       <c r="A164" s="9">
         <v>99385.0</v>
       </c>
@@ -15521,7 +15521,7 @@
       <c r="W164" s="17"/>
       <c r="X164" s="17"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" ht="14.25" hidden="1" customHeight="1">
       <c r="A165" s="9">
         <v>101736.0</v>
       </c>
@@ -15584,7 +15584,7 @@
       <c r="W165" s="17"/>
       <c r="X165" s="17"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" ht="14.25" hidden="1" customHeight="1">
       <c r="A166" s="9">
         <v>102789.0</v>
       </c>
@@ -15647,7 +15647,7 @@
       <c r="W166" s="17"/>
       <c r="X166" s="17"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="9">
         <v>99387.0</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="W167" s="17"/>
       <c r="X167" s="17"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="9">
         <v>99388.0</v>
       </c>
@@ -15773,7 +15773,7 @@
       <c r="W168" s="17"/>
       <c r="X168" s="17"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="9">
         <v>99382.0</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="W169" s="17"/>
       <c r="X169" s="17"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="9">
         <v>99128.0</v>
       </c>
@@ -15899,7 +15899,7 @@
       <c r="W170" s="17"/>
       <c r="X170" s="17"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="9">
         <v>99126.0</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="W171" s="17"/>
       <c r="X171" s="17"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="9">
         <v>99123.0</v>
       </c>
@@ -16025,7 +16025,7 @@
       <c r="W172" s="17"/>
       <c r="X172" s="17"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="9">
         <v>99127.0</v>
       </c>
@@ -16088,7 +16088,7 @@
       <c r="W173" s="17"/>
       <c r="X173" s="17"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="9">
         <v>99122.0</v>
       </c>
@@ -16151,7 +16151,7 @@
       <c r="W174" s="17"/>
       <c r="X174" s="17"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="9">
         <v>99125.0</v>
       </c>
@@ -16214,7 +16214,7 @@
       <c r="W175" s="17"/>
       <c r="X175" s="17"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="9">
         <v>99124.0</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="W176" s="17"/>
       <c r="X176" s="17"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="9">
         <v>99121.0</v>
       </c>
@@ -16340,7 +16340,7 @@
       <c r="W177" s="17"/>
       <c r="X177" s="17"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="9">
         <v>99135.0</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="W178" s="17"/>
       <c r="X178" s="17"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="9">
         <v>99136.0</v>
       </c>
@@ -16466,7 +16466,7 @@
       <c r="W179" s="17"/>
       <c r="X179" s="17"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="9">
         <v>99134.0</v>
       </c>
@@ -16529,7 +16529,7 @@
       <c r="W180" s="17"/>
       <c r="X180" s="17"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="9">
         <v>99132.0</v>
       </c>
@@ -16592,7 +16592,7 @@
       <c r="W181" s="17"/>
       <c r="X181" s="17"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="9">
         <v>99129.0</v>
       </c>
@@ -16655,7 +16655,7 @@
       <c r="W182" s="17"/>
       <c r="X182" s="17"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="9">
         <v>99131.0</v>
       </c>
@@ -16718,7 +16718,7 @@
       <c r="W183" s="17"/>
       <c r="X183" s="17"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="9">
         <v>99133.0</v>
       </c>
@@ -16781,7 +16781,7 @@
       <c r="W184" s="17"/>
       <c r="X184" s="17"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" ht="14.25" hidden="1" customHeight="1">
       <c r="A185" s="9">
         <v>99130.0</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="W185" s="17"/>
       <c r="X185" s="17"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" ht="14.25" hidden="1" customHeight="1">
       <c r="A186" s="9">
         <v>99142.0</v>
       </c>
@@ -16907,7 +16907,7 @@
       <c r="W186" s="17"/>
       <c r="X186" s="17"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" ht="14.25" hidden="1" customHeight="1">
       <c r="A187" s="9">
         <v>99137.0</v>
       </c>
@@ -16970,7 +16970,7 @@
       <c r="W187" s="17"/>
       <c r="X187" s="17"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" ht="14.25" hidden="1" customHeight="1">
       <c r="A188" s="9">
         <v>99140.0</v>
       </c>
@@ -17033,7 +17033,7 @@
       <c r="W188" s="17"/>
       <c r="X188" s="17"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" ht="14.25" hidden="1" customHeight="1">
       <c r="A189" s="9">
         <v>99141.0</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="W189" s="17"/>
       <c r="X189" s="17"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" ht="14.25" hidden="1" customHeight="1">
       <c r="A190" s="9">
         <v>99139.0</v>
       </c>
@@ -17159,7 +17159,7 @@
       <c r="W190" s="17"/>
       <c r="X190" s="17"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" ht="14.25" hidden="1" customHeight="1">
       <c r="A191" s="9">
         <v>99143.0</v>
       </c>
@@ -17222,7 +17222,7 @@
       <c r="W191" s="17"/>
       <c r="X191" s="17"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" ht="14.25" hidden="1" customHeight="1">
       <c r="A192" s="9">
         <v>99138.0</v>
       </c>
@@ -17285,7 +17285,7 @@
       <c r="W192" s="17"/>
       <c r="X192" s="17"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" ht="14.25" hidden="1" customHeight="1">
       <c r="A193" s="9">
         <v>104712.0</v>
       </c>
@@ -17348,7 +17348,7 @@
       <c r="W193" s="17"/>
       <c r="X193" s="17"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" ht="14.25" hidden="1" customHeight="1">
       <c r="A194" s="9">
         <v>104715.0</v>
       </c>
@@ -17411,7 +17411,7 @@
       <c r="W194" s="17"/>
       <c r="X194" s="17"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" ht="14.25" hidden="1" customHeight="1">
       <c r="A195" s="9">
         <v>104716.0</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="W195" s="17"/>
       <c r="X195" s="17"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" ht="14.25" hidden="1" customHeight="1">
       <c r="A196" s="9">
         <v>104717.0</v>
       </c>
@@ -17537,7 +17537,7 @@
       <c r="W196" s="21"/>
       <c r="X196" s="21"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" ht="14.25" hidden="1" customHeight="1">
       <c r="A197" s="9">
         <v>104711.0</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="W197" s="17"/>
       <c r="X197" s="17"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" ht="14.25" hidden="1" customHeight="1">
       <c r="A198" s="9">
         <v>104713.0</v>
       </c>
@@ -17663,7 +17663,7 @@
       <c r="W198" s="17"/>
       <c r="X198" s="17"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" ht="14.25" hidden="1" customHeight="1">
       <c r="A199" s="9">
         <v>104714.0</v>
       </c>
@@ -17726,7 +17726,7 @@
       <c r="W199" s="17"/>
       <c r="X199" s="17"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" ht="14.25" hidden="1" customHeight="1">
       <c r="A200" s="9">
         <v>99965.0</v>
       </c>
@@ -17789,7 +17789,7 @@
       <c r="W200" s="17"/>
       <c r="X200" s="17"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" ht="14.25" hidden="1" customHeight="1">
       <c r="A201" s="9">
         <v>99966.0</v>
       </c>
@@ -17852,7 +17852,7 @@
       <c r="W201" s="17"/>
       <c r="X201" s="17"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" ht="14.25" hidden="1" customHeight="1">
       <c r="A202" s="9">
         <v>99969.0</v>
       </c>
@@ -17915,7 +17915,7 @@
       <c r="W202" s="17"/>
       <c r="X202" s="17"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" ht="14.25" hidden="1" customHeight="1">
       <c r="A203" s="9">
         <v>99967.0</v>
       </c>
@@ -17978,7 +17978,7 @@
       <c r="W203" s="17"/>
       <c r="X203" s="17"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" ht="14.25" hidden="1" customHeight="1">
       <c r="A204" s="9">
         <v>99968.0</v>
       </c>
@@ -18041,7 +18041,7 @@
       <c r="W204" s="17"/>
       <c r="X204" s="17"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" ht="14.25" hidden="1" customHeight="1">
       <c r="A205" s="9">
         <v>99964.0</v>
       </c>
@@ -18104,7 +18104,7 @@
       <c r="W205" s="17"/>
       <c r="X205" s="17"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" ht="14.25" hidden="1" customHeight="1">
       <c r="A206" s="9">
         <v>99970.0</v>
       </c>
@@ -18167,7 +18167,7 @@
       <c r="W206" s="17"/>
       <c r="X206" s="17"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" ht="14.25" hidden="1" customHeight="1">
       <c r="A207" s="9">
         <v>99973.0</v>
       </c>
@@ -18230,7 +18230,7 @@
       <c r="W207" s="17"/>
       <c r="X207" s="17"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" ht="14.25" hidden="1" customHeight="1">
       <c r="A208" s="9">
         <v>99972.0</v>
       </c>
@@ -18293,7 +18293,7 @@
       <c r="W208" s="17"/>
       <c r="X208" s="17"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" ht="14.25" hidden="1" customHeight="1">
       <c r="A209" s="9">
         <v>99971.0</v>
       </c>
@@ -18356,7 +18356,7 @@
       <c r="W209" s="17"/>
       <c r="X209" s="17"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" ht="14.25" hidden="1" customHeight="1">
       <c r="A210" s="9">
         <v>99976.0</v>
       </c>
@@ -18419,7 +18419,7 @@
       <c r="W210" s="17"/>
       <c r="X210" s="17"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" ht="14.25" hidden="1" customHeight="1">
       <c r="A211" s="9">
         <v>99978.0</v>
       </c>
@@ -18482,7 +18482,7 @@
       <c r="W211" s="17"/>
       <c r="X211" s="17"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" ht="14.25" hidden="1" customHeight="1">
       <c r="A212" s="9">
         <v>99975.0</v>
       </c>
@@ -18545,7 +18545,7 @@
       <c r="W212" s="17"/>
       <c r="X212" s="17"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" ht="14.25" hidden="1" customHeight="1">
       <c r="A213" s="9">
         <v>99974.0</v>
       </c>
@@ -18608,7 +18608,7 @@
       <c r="W213" s="17"/>
       <c r="X213" s="17"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" ht="14.25" hidden="1" customHeight="1">
       <c r="A214" s="9">
         <v>99977.0</v>
       </c>
@@ -18671,7 +18671,7 @@
       <c r="W214" s="17"/>
       <c r="X214" s="17"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" ht="14.25" hidden="1" customHeight="1">
       <c r="A215" s="9">
         <v>99979.0</v>
       </c>
@@ -18734,7 +18734,7 @@
       <c r="W215" s="17"/>
       <c r="X215" s="17"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" ht="14.25" hidden="1" customHeight="1">
       <c r="A216" s="9">
         <v>104612.0</v>
       </c>
@@ -18797,7 +18797,7 @@
       <c r="W216" s="17"/>
       <c r="X216" s="17"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" ht="14.25" hidden="1" customHeight="1">
       <c r="A217" s="9">
         <v>104613.0</v>
       </c>
@@ -18860,7 +18860,7 @@
       <c r="W217" s="17"/>
       <c r="X217" s="17"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" ht="14.25" hidden="1" customHeight="1">
       <c r="A218" s="9">
         <v>104614.0</v>
       </c>
@@ -18923,7 +18923,7 @@
       <c r="W218" s="17"/>
       <c r="X218" s="17"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" ht="14.25" hidden="1" customHeight="1">
       <c r="A219" s="9">
         <v>104615.0</v>
       </c>
@@ -18986,7 +18986,7 @@
       <c r="W219" s="17"/>
       <c r="X219" s="17"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" ht="14.25" hidden="1" customHeight="1">
       <c r="A220" s="9">
         <v>104616.0</v>
       </c>
@@ -19049,7 +19049,7 @@
       <c r="W220" s="17"/>
       <c r="X220" s="17"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" ht="14.25" hidden="1" customHeight="1">
       <c r="A221" s="9">
         <v>104617.0</v>
       </c>
@@ -19112,7 +19112,7 @@
       <c r="W221" s="17"/>
       <c r="X221" s="17"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" ht="14.25" hidden="1" customHeight="1">
       <c r="A222" s="9">
         <v>104618.0</v>
       </c>
@@ -19175,7 +19175,7 @@
       <c r="W222" s="17"/>
       <c r="X222" s="17"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" ht="14.25" hidden="1" customHeight="1">
       <c r="A223" s="9">
         <v>99242.0</v>
       </c>
@@ -19238,7 +19238,7 @@
       <c r="W223" s="17"/>
       <c r="X223" s="17"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" ht="14.25" hidden="1" customHeight="1">
       <c r="A224" s="9">
         <v>99243.0</v>
       </c>
@@ -19301,7 +19301,7 @@
       <c r="W224" s="17"/>
       <c r="X224" s="17"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" ht="14.25" hidden="1" customHeight="1">
       <c r="A225" s="9">
         <v>99240.0</v>
       </c>
@@ -19364,7 +19364,7 @@
       <c r="W225" s="17"/>
       <c r="X225" s="17"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" ht="14.25" hidden="1" customHeight="1">
       <c r="A226" s="9">
         <v>99239.0</v>
       </c>
@@ -19427,7 +19427,7 @@
       <c r="W226" s="17"/>
       <c r="X226" s="17"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" ht="14.25" hidden="1" customHeight="1">
       <c r="A227" s="9">
         <v>99237.0</v>
       </c>
@@ -19490,7 +19490,7 @@
       <c r="W227" s="17"/>
       <c r="X227" s="17"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" ht="14.25" hidden="1" customHeight="1">
       <c r="A228" s="9">
         <v>99238.0</v>
       </c>
@@ -19553,7 +19553,7 @@
       <c r="W228" s="17"/>
       <c r="X228" s="17"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" ht="14.25" hidden="1" customHeight="1">
       <c r="A229" s="9">
         <v>99241.0</v>
       </c>
@@ -19616,7 +19616,7 @@
       <c r="W229" s="17"/>
       <c r="X229" s="17"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" ht="14.25" hidden="1" customHeight="1">
       <c r="A230" s="9">
         <v>99249.0</v>
       </c>
@@ -19679,7 +19679,7 @@
       <c r="W230" s="17"/>
       <c r="X230" s="17"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" ht="14.25" hidden="1" customHeight="1">
       <c r="A231" s="9">
         <v>99246.0</v>
       </c>
@@ -19742,7 +19742,7 @@
       <c r="W231" s="17"/>
       <c r="X231" s="17"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" ht="14.25" hidden="1" customHeight="1">
       <c r="A232" s="9">
         <v>99251.0</v>
       </c>
@@ -19805,7 +19805,7 @@
       <c r="W232" s="17"/>
       <c r="X232" s="17"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" ht="14.25" hidden="1" customHeight="1">
       <c r="A233" s="9">
         <v>99244.0</v>
       </c>
@@ -19868,7 +19868,7 @@
       <c r="W233" s="17"/>
       <c r="X233" s="17"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" ht="14.25" hidden="1" customHeight="1">
       <c r="A234" s="9">
         <v>99250.0</v>
       </c>
@@ -19931,7 +19931,7 @@
       <c r="W234" s="17"/>
       <c r="X234" s="17"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" ht="14.25" hidden="1" customHeight="1">
       <c r="A235" s="9">
         <v>99248.0</v>
       </c>
@@ -19994,7 +19994,7 @@
       <c r="W235" s="17"/>
       <c r="X235" s="17"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" ht="14.25" hidden="1" customHeight="1">
       <c r="A236" s="9">
         <v>99245.0</v>
       </c>
@@ -20057,7 +20057,7 @@
       <c r="W236" s="17"/>
       <c r="X236" s="17"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" ht="14.25" hidden="1" customHeight="1">
       <c r="A237" s="9">
         <v>99247.0</v>
       </c>
@@ -20120,7 +20120,7 @@
       <c r="W237" s="17"/>
       <c r="X237" s="17"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" ht="14.25" hidden="1" customHeight="1">
       <c r="A238" s="9">
         <v>99254.0</v>
       </c>
@@ -20183,7 +20183,7 @@
       <c r="W238" s="17"/>
       <c r="X238" s="17"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" ht="14.25" hidden="1" customHeight="1">
       <c r="A239" s="9">
         <v>99255.0</v>
       </c>
@@ -20246,7 +20246,7 @@
       <c r="W239" s="17"/>
       <c r="X239" s="17"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" ht="14.25" hidden="1" customHeight="1">
       <c r="A240" s="9">
         <v>99256.0</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="W240" s="17"/>
       <c r="X240" s="17"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" ht="14.25" hidden="1" customHeight="1">
       <c r="A241" s="9">
         <v>99252.0</v>
       </c>
@@ -20372,7 +20372,7 @@
       <c r="W241" s="17"/>
       <c r="X241" s="17"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="9">
         <v>99253.0</v>
       </c>
@@ -20435,7 +20435,7 @@
       <c r="W242" s="17"/>
       <c r="X242" s="17"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="9">
         <v>99258.0</v>
       </c>
@@ -20498,7 +20498,7 @@
       <c r="W243" s="17"/>
       <c r="X243" s="17"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="9">
         <v>99257.0</v>
       </c>
@@ -20561,7 +20561,7 @@
       <c r="W244" s="17"/>
       <c r="X244" s="17"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="9">
         <v>99263.0</v>
       </c>
@@ -20624,7 +20624,7 @@
       <c r="W245" s="17"/>
       <c r="X245" s="17"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="9">
         <v>99262.0</v>
       </c>
@@ -20687,7 +20687,7 @@
       <c r="W246" s="17"/>
       <c r="X246" s="17"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="9">
         <v>99259.0</v>
       </c>
@@ -20750,7 +20750,7 @@
       <c r="W247" s="17"/>
       <c r="X247" s="17"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="9">
         <v>99261.0</v>
       </c>
@@ -20813,7 +20813,7 @@
       <c r="W248" s="17"/>
       <c r="X248" s="17"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="9">
         <v>99260.0</v>
       </c>
@@ -20876,7 +20876,7 @@
       <c r="W249" s="17"/>
       <c r="X249" s="17"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="9">
         <v>104681.0</v>
       </c>
@@ -20939,7 +20939,7 @@
       <c r="W250" s="17"/>
       <c r="X250" s="17"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="9">
         <v>104683.0</v>
       </c>
@@ -21002,7 +21002,7 @@
       <c r="W251" s="17"/>
       <c r="X251" s="17"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="9">
         <v>104682.0</v>
       </c>
@@ -21065,7 +21065,7 @@
       <c r="W252" s="17"/>
       <c r="X252" s="17"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="9">
         <v>104684.0</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="W253" s="17"/>
       <c r="X253" s="17"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="9">
         <v>104685.0</v>
       </c>
@@ -21191,7 +21191,7 @@
       <c r="W254" s="17"/>
       <c r="X254" s="17"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="9">
         <v>104686.0</v>
       </c>
@@ -21254,7 +21254,7 @@
       <c r="W255" s="17"/>
       <c r="X255" s="17"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="9">
         <v>104730.0</v>
       </c>
@@ -21317,7 +21317,7 @@
       <c r="W256" s="17"/>
       <c r="X256" s="17"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="9">
         <v>99266.0</v>
       </c>
@@ -21380,7 +21380,7 @@
       <c r="W257" s="17"/>
       <c r="X257" s="17"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="9">
         <v>99268.0</v>
       </c>
@@ -21443,7 +21443,7 @@
       <c r="W258" s="17"/>
       <c r="X258" s="17"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" ht="14.25" hidden="1" customHeight="1">
       <c r="A259" s="9">
         <v>99267.0</v>
       </c>
@@ -21506,7 +21506,7 @@
       <c r="W259" s="17"/>
       <c r="X259" s="17"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" ht="14.25" hidden="1" customHeight="1">
       <c r="A260" s="9">
         <v>99264.0</v>
       </c>
@@ -21569,7 +21569,7 @@
       <c r="W260" s="17"/>
       <c r="X260" s="17"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" ht="14.25" hidden="1" customHeight="1">
       <c r="A261" s="9">
         <v>99265.0</v>
       </c>
@@ -21632,7 +21632,7 @@
       <c r="W261" s="17"/>
       <c r="X261" s="17"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" ht="14.25" hidden="1" customHeight="1">
       <c r="A262" s="9">
         <v>99269.0</v>
       </c>
@@ -21695,7 +21695,7 @@
       <c r="W262" s="17"/>
       <c r="X262" s="17"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" ht="14.25" hidden="1" customHeight="1">
       <c r="A263" s="9">
         <v>99271.0</v>
       </c>
@@ -21758,7 +21758,7 @@
       <c r="W263" s="17"/>
       <c r="X263" s="17"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" ht="14.25" hidden="1" customHeight="1">
       <c r="A264" s="9">
         <v>99274.0</v>
       </c>
@@ -21821,7 +21821,7 @@
       <c r="W264" s="17"/>
       <c r="X264" s="17"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" ht="14.25" hidden="1" customHeight="1">
       <c r="A265" s="9">
         <v>99270.0</v>
       </c>
@@ -21884,7 +21884,7 @@
       <c r="W265" s="17"/>
       <c r="X265" s="17"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" ht="14.25" hidden="1" customHeight="1">
       <c r="A266" s="9">
         <v>99273.0</v>
       </c>
@@ -21947,7 +21947,7 @@
       <c r="W266" s="17"/>
       <c r="X266" s="17"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" ht="14.25" hidden="1" customHeight="1">
       <c r="A267" s="9">
         <v>99272.0</v>
       </c>
@@ -22010,7 +22010,7 @@
       <c r="W267" s="17"/>
       <c r="X267" s="17"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" ht="14.25" hidden="1" customHeight="1">
       <c r="A268" s="9">
         <v>99276.0</v>
       </c>
@@ -22073,7 +22073,7 @@
       <c r="W268" s="17"/>
       <c r="X268" s="17"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" ht="14.25" hidden="1" customHeight="1">
       <c r="A269" s="9">
         <v>99277.0</v>
       </c>
@@ -22136,7 +22136,7 @@
       <c r="W269" s="17"/>
       <c r="X269" s="17"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" ht="14.25" hidden="1" customHeight="1">
       <c r="A270" s="9">
         <v>99278.0</v>
       </c>
@@ -22199,7 +22199,7 @@
       <c r="W270" s="17"/>
       <c r="X270" s="17"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" ht="14.25" hidden="1" customHeight="1">
       <c r="A271" s="9">
         <v>99275.0</v>
       </c>
@@ -22262,7 +22262,7 @@
       <c r="W271" s="17"/>
       <c r="X271" s="17"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" ht="14.25" hidden="1" customHeight="1">
       <c r="A272" s="9">
         <v>104626.0</v>
       </c>
@@ -22325,7 +22325,7 @@
       <c r="W272" s="17"/>
       <c r="X272" s="17"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" ht="14.25" hidden="1" customHeight="1">
       <c r="A273" s="9">
         <v>104628.0</v>
       </c>
@@ -22388,7 +22388,7 @@
       <c r="W273" s="17"/>
       <c r="X273" s="17"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" ht="14.25" hidden="1" customHeight="1">
       <c r="A274" s="9">
         <v>104627.0</v>
       </c>
@@ -22451,7 +22451,7 @@
       <c r="W274" s="17"/>
       <c r="X274" s="17"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" ht="14.25" hidden="1" customHeight="1">
       <c r="A275" s="9">
         <v>104629.0</v>
       </c>
@@ -22514,7 +22514,7 @@
       <c r="W275" s="17"/>
       <c r="X275" s="17"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" ht="14.25" hidden="1" customHeight="1">
       <c r="A276" s="9">
         <v>104630.0</v>
       </c>
@@ -22577,7 +22577,7 @@
       <c r="W276" s="17"/>
       <c r="X276" s="17"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" ht="14.25" hidden="1" customHeight="1">
       <c r="A277" s="9">
         <v>104631.0</v>
       </c>
@@ -22640,7 +22640,7 @@
       <c r="W277" s="17"/>
       <c r="X277" s="17"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" ht="14.25" hidden="1" customHeight="1">
       <c r="A278" s="9">
         <v>104632.0</v>
       </c>
@@ -22703,7 +22703,7 @@
       <c r="W278" s="17"/>
       <c r="X278" s="17"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" ht="14.25" hidden="1" customHeight="1">
       <c r="A279" s="9">
         <v>104633.0</v>
       </c>
@@ -22766,7 +22766,7 @@
       <c r="W279" s="17"/>
       <c r="X279" s="17"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" ht="14.25" hidden="1" customHeight="1">
       <c r="A280" s="9">
         <v>99144.0</v>
       </c>
@@ -22829,7 +22829,7 @@
       <c r="W280" s="17"/>
       <c r="X280" s="17"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" ht="14.25" hidden="1" customHeight="1">
       <c r="A281" s="9">
         <v>99147.0</v>
       </c>
@@ -22892,7 +22892,7 @@
       <c r="W281" s="17"/>
       <c r="X281" s="17"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" ht="14.25" hidden="1" customHeight="1">
       <c r="A282" s="9">
         <v>99148.0</v>
       </c>
@@ -22955,7 +22955,7 @@
       <c r="W282" s="17"/>
       <c r="X282" s="17"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" ht="14.25" hidden="1" customHeight="1">
       <c r="A283" s="9">
         <v>99149.0</v>
       </c>
@@ -23018,7 +23018,7 @@
       <c r="W283" s="17"/>
       <c r="X283" s="17"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" ht="14.25" hidden="1" customHeight="1">
       <c r="A284" s="9">
         <v>99146.0</v>
       </c>
@@ -23081,7 +23081,7 @@
       <c r="W284" s="17"/>
       <c r="X284" s="17"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" ht="14.25" hidden="1" customHeight="1">
       <c r="A285" s="9">
         <v>99145.0</v>
       </c>
@@ -23144,7 +23144,7 @@
       <c r="W285" s="17"/>
       <c r="X285" s="17"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" ht="14.25" hidden="1" customHeight="1">
       <c r="A286" s="9">
         <v>99150.0</v>
       </c>
@@ -23207,7 +23207,7 @@
       <c r="W286" s="17"/>
       <c r="X286" s="17"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" ht="14.25" hidden="1" customHeight="1">
       <c r="A287" s="9">
         <v>99154.0</v>
       </c>
@@ -23270,7 +23270,7 @@
       <c r="W287" s="17"/>
       <c r="X287" s="17"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" ht="14.25" hidden="1" customHeight="1">
       <c r="A288" s="9">
         <v>99156.0</v>
       </c>
@@ -23333,7 +23333,7 @@
       <c r="W288" s="17"/>
       <c r="X288" s="17"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" ht="14.25" hidden="1" customHeight="1">
       <c r="A289" s="9">
         <v>99153.0</v>
       </c>
@@ -23396,7 +23396,7 @@
       <c r="W289" s="17"/>
       <c r="X289" s="17"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" ht="14.25" hidden="1" customHeight="1">
       <c r="A290" s="9">
         <v>99155.0</v>
       </c>
@@ -23459,7 +23459,7 @@
       <c r="W290" s="17"/>
       <c r="X290" s="17"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" ht="14.25" hidden="1" customHeight="1">
       <c r="A291" s="9">
         <v>99151.0</v>
       </c>
@@ -23522,7 +23522,7 @@
       <c r="W291" s="17"/>
       <c r="X291" s="17"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" ht="14.25" hidden="1" customHeight="1">
       <c r="A292" s="9">
         <v>99527.0</v>
       </c>
@@ -23585,7 +23585,7 @@
       <c r="W292" s="17"/>
       <c r="X292" s="17"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" ht="14.25" hidden="1" customHeight="1">
       <c r="A293" s="9">
         <v>99526.0</v>
       </c>
@@ -23648,7 +23648,7 @@
       <c r="W293" s="17"/>
       <c r="X293" s="17"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" ht="14.25" hidden="1" customHeight="1">
       <c r="A294" s="9">
         <v>99152.0</v>
       </c>
@@ -23711,7 +23711,7 @@
       <c r="W294" s="17"/>
       <c r="X294" s="17"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" ht="14.25" hidden="1" customHeight="1">
       <c r="A295" s="9">
         <v>104718.0</v>
       </c>
@@ -23774,7 +23774,7 @@
       <c r="W295" s="17"/>
       <c r="X295" s="17"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" ht="14.25" hidden="1" customHeight="1">
       <c r="A296" s="9">
         <v>104722.0</v>
       </c>
@@ -23837,7 +23837,7 @@
       <c r="W296" s="17"/>
       <c r="X296" s="17"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" ht="14.25" hidden="1" customHeight="1">
       <c r="A297" s="9">
         <v>104719.0</v>
       </c>
@@ -23900,7 +23900,7 @@
       <c r="W297" s="17"/>
       <c r="X297" s="17"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" ht="14.25" hidden="1" customHeight="1">
       <c r="A298" s="9">
         <v>104723.0</v>
       </c>
@@ -23963,7 +23963,7 @@
       <c r="W298" s="17"/>
       <c r="X298" s="17"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" ht="14.25" hidden="1" customHeight="1">
       <c r="A299" s="9">
         <v>104721.0</v>
       </c>
@@ -24026,7 +24026,7 @@
       <c r="W299" s="17"/>
       <c r="X299" s="17"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" ht="14.25" hidden="1" customHeight="1">
       <c r="A300" s="9">
         <v>104720.0</v>
       </c>
@@ -24089,7 +24089,7 @@
       <c r="W300" s="17"/>
       <c r="X300" s="17"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" ht="14.25" hidden="1" customHeight="1">
       <c r="A301" s="9">
         <v>99980.0</v>
       </c>
@@ -24152,7 +24152,7 @@
       <c r="W301" s="17"/>
       <c r="X301" s="17"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" ht="14.25" hidden="1" customHeight="1">
       <c r="A302" s="9">
         <v>99985.0</v>
       </c>
@@ -24215,7 +24215,7 @@
       <c r="W302" s="17"/>
       <c r="X302" s="17"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" ht="14.25" hidden="1" customHeight="1">
       <c r="A303" s="9">
         <v>99981.0</v>
       </c>
@@ -24278,7 +24278,7 @@
       <c r="W303" s="17"/>
       <c r="X303" s="17"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" ht="14.25" hidden="1" customHeight="1">
       <c r="A304" s="9">
         <v>99982.0</v>
       </c>
@@ -24341,7 +24341,7 @@
       <c r="W304" s="17"/>
       <c r="X304" s="17"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" ht="14.25" hidden="1" customHeight="1">
       <c r="A305" s="9">
         <v>99983.0</v>
       </c>
@@ -24404,7 +24404,7 @@
       <c r="W305" s="17"/>
       <c r="X305" s="17"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" ht="14.25" hidden="1" customHeight="1">
       <c r="A306" s="9">
         <v>99984.0</v>
       </c>
@@ -24467,7 +24467,7 @@
       <c r="W306" s="17"/>
       <c r="X306" s="17"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" ht="14.25" hidden="1" customHeight="1">
       <c r="A307" s="9">
         <v>99989.0</v>
       </c>
@@ -24530,7 +24530,7 @@
       <c r="W307" s="17"/>
       <c r="X307" s="17"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" ht="14.25" hidden="1" customHeight="1">
       <c r="A308" s="9">
         <v>99986.0</v>
       </c>
@@ -24593,7 +24593,7 @@
       <c r="W308" s="17"/>
       <c r="X308" s="17"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" ht="14.25" hidden="1" customHeight="1">
       <c r="A309" s="9">
         <v>99988.0</v>
       </c>
@@ -24656,7 +24656,7 @@
       <c r="W309" s="17"/>
       <c r="X309" s="17"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" ht="14.25" hidden="1" customHeight="1">
       <c r="A310" s="9">
         <v>99990.0</v>
       </c>
@@ -24719,7 +24719,7 @@
       <c r="W310" s="17"/>
       <c r="X310" s="17"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" ht="14.25" hidden="1" customHeight="1">
       <c r="A311" s="9">
         <v>99987.0</v>
       </c>
@@ -24782,7 +24782,7 @@
       <c r="W311" s="17"/>
       <c r="X311" s="17"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="9">
         <v>99995.0</v>
       </c>
@@ -24845,7 +24845,7 @@
       <c r="W312" s="17"/>
       <c r="X312" s="17"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="9">
         <v>99994.0</v>
       </c>
@@ -24908,7 +24908,7 @@
       <c r="W313" s="17"/>
       <c r="X313" s="17"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="9">
         <v>99991.0</v>
       </c>
@@ -24971,7 +24971,7 @@
       <c r="W314" s="17"/>
       <c r="X314" s="17"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="9">
         <v>99993.0</v>
       </c>
@@ -25034,7 +25034,7 @@
       <c r="W315" s="17"/>
       <c r="X315" s="17"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="9">
         <v>99992.0</v>
       </c>
@@ -25097,7 +25097,7 @@
       <c r="W316" s="17"/>
       <c r="X316" s="17"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" ht="15.75" hidden="1" customHeight="1">
       <c r="A317" s="9">
         <v>104823.0</v>
       </c>
@@ -25160,7 +25160,7 @@
       <c r="W317" s="17"/>
       <c r="X317" s="17"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="9">
         <v>104837.0</v>
       </c>
@@ -25223,7 +25223,7 @@
       <c r="W318" s="17"/>
       <c r="X318" s="17"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" ht="15.75" hidden="1" customHeight="1">
       <c r="A319" s="9">
         <v>104822.0</v>
       </c>
@@ -25286,7 +25286,7 @@
       <c r="W319" s="17"/>
       <c r="X319" s="17"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="9">
         <v>104824.0</v>
       </c>
@@ -25349,7 +25349,7 @@
       <c r="W320" s="17"/>
       <c r="X320" s="17"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" ht="15.75" hidden="1" customHeight="1">
       <c r="A321" s="9">
         <v>104825.0</v>
       </c>
@@ -25412,7 +25412,7 @@
       <c r="W321" s="17"/>
       <c r="X321" s="17"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" ht="15.75" hidden="1" customHeight="1">
       <c r="A322" s="9">
         <v>104826.0</v>
       </c>
@@ -25475,7 +25475,7 @@
       <c r="W322" s="17"/>
       <c r="X322" s="17"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" ht="15.75" hidden="1" customHeight="1">
       <c r="A323" s="9">
         <v>99505.0</v>
       </c>
@@ -25538,7 +25538,7 @@
       <c r="W323" s="17"/>
       <c r="X323" s="17"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" ht="15.75" hidden="1" customHeight="1">
       <c r="A324" s="9">
         <v>102788.0</v>
       </c>
@@ -25601,7 +25601,7 @@
       <c r="W324" s="17"/>
       <c r="X324" s="17"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="9">
         <v>99159.0</v>
       </c>
@@ -25664,7 +25664,7 @@
       <c r="W325" s="17"/>
       <c r="X325" s="17"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" ht="15.75" hidden="1" customHeight="1">
       <c r="A326" s="9">
         <v>99162.0</v>
       </c>
@@ -25727,7 +25727,7 @@
       <c r="W326" s="17"/>
       <c r="X326" s="17"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" ht="15.75" hidden="1" customHeight="1">
       <c r="A327" s="9">
         <v>99160.0</v>
       </c>
@@ -25790,7 +25790,7 @@
       <c r="W327" s="17"/>
       <c r="X327" s="17"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" ht="15.75" hidden="1" customHeight="1">
       <c r="A328" s="9">
         <v>99157.0</v>
       </c>
@@ -25853,7 +25853,7 @@
       <c r="W328" s="17"/>
       <c r="X328" s="17"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" ht="15.75" hidden="1" customHeight="1">
       <c r="A329" s="9">
         <v>99161.0</v>
       </c>
@@ -25916,7 +25916,7 @@
       <c r="W329" s="17"/>
       <c r="X329" s="17"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="9">
         <v>99158.0</v>
       </c>
@@ -25979,7 +25979,7 @@
       <c r="W330" s="17"/>
       <c r="X330" s="17"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" ht="15.75" hidden="1" customHeight="1">
       <c r="A331" s="9">
         <v>99165.0</v>
       </c>
@@ -26042,7 +26042,7 @@
       <c r="W331" s="17"/>
       <c r="X331" s="17"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="9">
         <v>99164.0</v>
       </c>
@@ -26105,7 +26105,7 @@
       <c r="W332" s="17"/>
       <c r="X332" s="17"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" ht="15.75" hidden="1" customHeight="1">
       <c r="A333" s="9">
         <v>99167.0</v>
       </c>
@@ -26168,7 +26168,7 @@
       <c r="W333" s="21"/>
       <c r="X333" s="21"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" ht="15.75" hidden="1" customHeight="1">
       <c r="A334" s="9">
         <v>99168.0</v>
       </c>
@@ -26231,7 +26231,7 @@
       <c r="W334" s="17"/>
       <c r="X334" s="17"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" ht="15.75" hidden="1" customHeight="1">
       <c r="A335" s="9">
         <v>99163.0</v>
       </c>
@@ -26294,7 +26294,7 @@
       <c r="W335" s="17"/>
       <c r="X335" s="17"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="9">
         <v>99166.0</v>
       </c>
@@ -26357,7 +26357,7 @@
       <c r="W336" s="17"/>
       <c r="X336" s="17"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" ht="15.75" hidden="1" customHeight="1">
       <c r="A337" s="9">
         <v>104795.0</v>
       </c>
@@ -26420,7 +26420,7 @@
       <c r="W337" s="17"/>
       <c r="X337" s="17"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="9">
         <v>104796.0</v>
       </c>
@@ -26483,7 +26483,7 @@
       <c r="W338" s="17"/>
       <c r="X338" s="17"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" ht="15.75" hidden="1" customHeight="1">
       <c r="A339" s="9">
         <v>104797.0</v>
       </c>
@@ -26546,7 +26546,7 @@
       <c r="W339" s="17"/>
       <c r="X339" s="17"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" ht="15.75" hidden="1" customHeight="1">
       <c r="A340" s="9">
         <v>104798.0</v>
       </c>
@@ -26609,7 +26609,7 @@
       <c r="W340" s="17"/>
       <c r="X340" s="17"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" ht="15.75" hidden="1" customHeight="1">
       <c r="A341" s="9">
         <v>104799.0</v>
       </c>
@@ -26672,7 +26672,7 @@
       <c r="W341" s="17"/>
       <c r="X341" s="17"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" ht="15.75" hidden="1" customHeight="1">
       <c r="A342" s="9">
         <v>104800.0</v>
       </c>
@@ -26735,7 +26735,7 @@
       <c r="W342" s="17"/>
       <c r="X342" s="17"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" ht="15.75" hidden="1" customHeight="1">
       <c r="A343" s="9">
         <v>104801.0</v>
       </c>
@@ -26798,7 +26798,7 @@
       <c r="W343" s="17"/>
       <c r="X343" s="17"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" ht="15.75" hidden="1" customHeight="1">
       <c r="A344" s="9">
         <v>99209.0</v>
       </c>
@@ -26861,7 +26861,7 @@
       <c r="W344" s="17"/>
       <c r="X344" s="17"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" ht="15.75" hidden="1" customHeight="1">
       <c r="A345" s="9">
         <v>99205.0</v>
       </c>
@@ -26924,7 +26924,7 @@
       <c r="W345" s="17"/>
       <c r="X345" s="17"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" ht="15.75" hidden="1" customHeight="1">
       <c r="A346" s="9">
         <v>99204.0</v>
       </c>
@@ -26987,7 +26987,7 @@
       <c r="W346" s="17"/>
       <c r="X346" s="17"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" ht="15.75" hidden="1" customHeight="1">
       <c r="A347" s="9">
         <v>99207.0</v>
       </c>
@@ -27050,7 +27050,7 @@
       <c r="W347" s="17"/>
       <c r="X347" s="17"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" ht="15.75" hidden="1" customHeight="1">
       <c r="A348" s="9">
         <v>99206.0</v>
       </c>
@@ -27113,7 +27113,7 @@
       <c r="W348" s="17"/>
       <c r="X348" s="17"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" ht="15.75" hidden="1" customHeight="1">
       <c r="A349" s="9">
         <v>99208.0</v>
       </c>
@@ -27176,7 +27176,7 @@
       <c r="W349" s="17"/>
       <c r="X349" s="17"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" ht="15.75" hidden="1" customHeight="1">
       <c r="A350" s="9">
         <v>99203.0</v>
       </c>
@@ -27239,7 +27239,7 @@
       <c r="W350" s="17"/>
       <c r="X350" s="17"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" ht="15.75" hidden="1" customHeight="1">
       <c r="A351" s="9">
         <v>99202.0</v>
       </c>
@@ -27302,7 +27302,7 @@
       <c r="W351" s="17"/>
       <c r="X351" s="17"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" ht="15.75" hidden="1" customHeight="1">
       <c r="A352" s="9">
         <v>99211.0</v>
       </c>
@@ -27365,7 +27365,7 @@
       <c r="W352" s="17"/>
       <c r="X352" s="17"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" ht="15.75" hidden="1" customHeight="1">
       <c r="A353" s="9">
         <v>99212.0</v>
       </c>
@@ -27428,7 +27428,7 @@
       <c r="W353" s="21"/>
       <c r="X353" s="21"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" ht="15.75" hidden="1" customHeight="1">
       <c r="A354" s="9">
         <v>99216.0</v>
       </c>
@@ -27491,7 +27491,7 @@
       <c r="W354" s="17"/>
       <c r="X354" s="17"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" ht="15.75" hidden="1" customHeight="1">
       <c r="A355" s="9">
         <v>99210.0</v>
       </c>
@@ -27554,7 +27554,7 @@
       <c r="W355" s="17"/>
       <c r="X355" s="17"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" ht="15.75" hidden="1" customHeight="1">
       <c r="A356" s="9">
         <v>99215.0</v>
       </c>
@@ -27617,7 +27617,7 @@
       <c r="W356" s="17"/>
       <c r="X356" s="17"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" ht="15.75" hidden="1" customHeight="1">
       <c r="A357" s="9">
         <v>99213.0</v>
       </c>
@@ -27680,7 +27680,7 @@
       <c r="W357" s="17"/>
       <c r="X357" s="17"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" ht="15.75" hidden="1" customHeight="1">
       <c r="A358" s="9">
         <v>99214.0</v>
       </c>
@@ -27743,7 +27743,7 @@
       <c r="W358" s="17"/>
       <c r="X358" s="17"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" ht="15.75" hidden="1" customHeight="1">
       <c r="A359" s="9">
         <v>99223.0</v>
       </c>
@@ -27806,7 +27806,7 @@
       <c r="W359" s="17"/>
       <c r="X359" s="17"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" ht="15.75" hidden="1" customHeight="1">
       <c r="A360" s="9">
         <v>99222.0</v>
       </c>
@@ -27869,7 +27869,7 @@
       <c r="W360" s="17"/>
       <c r="X360" s="17"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" ht="15.75" hidden="1" customHeight="1">
       <c r="A361" s="9">
         <v>99221.0</v>
       </c>
@@ -27932,7 +27932,7 @@
       <c r="W361" s="17"/>
       <c r="X361" s="17"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" ht="15.75" hidden="1" customHeight="1">
       <c r="A362" s="9">
         <v>99218.0</v>
       </c>
@@ -27995,7 +27995,7 @@
       <c r="W362" s="17"/>
       <c r="X362" s="17"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" ht="15.75" hidden="1" customHeight="1">
       <c r="A363" s="9">
         <v>99220.0</v>
       </c>
@@ -28058,7 +28058,7 @@
       <c r="W363" s="17"/>
       <c r="X363" s="17"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" ht="15.75" hidden="1" customHeight="1">
       <c r="A364" s="9">
         <v>99217.0</v>
       </c>
@@ -28121,7 +28121,7 @@
       <c r="W364" s="17"/>
       <c r="X364" s="17"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" ht="15.75" hidden="1" customHeight="1">
       <c r="A365" s="9">
         <v>99219.0</v>
       </c>
@@ -28184,7 +28184,7 @@
       <c r="W365" s="17"/>
       <c r="X365" s="17"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" ht="15.75" hidden="1" customHeight="1">
       <c r="A366" s="9">
         <v>99232.0</v>
       </c>
@@ -28247,7 +28247,7 @@
       <c r="W366" s="17"/>
       <c r="X366" s="17"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" ht="15.75" hidden="1" customHeight="1">
       <c r="A367" s="9">
         <v>99229.0</v>
       </c>
@@ -28310,7 +28310,7 @@
       <c r="W367" s="17"/>
       <c r="X367" s="17"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" ht="15.75" hidden="1" customHeight="1">
       <c r="A368" s="9">
         <v>99226.0</v>
       </c>
@@ -28373,7 +28373,7 @@
       <c r="W368" s="21"/>
       <c r="X368" s="21"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" ht="15.75" hidden="1" customHeight="1">
       <c r="A369" s="9">
         <v>99224.0</v>
       </c>
@@ -28436,7 +28436,7 @@
       <c r="W369" s="17"/>
       <c r="X369" s="17"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" ht="15.75" hidden="1" customHeight="1">
       <c r="A370" s="9">
         <v>99235.0</v>
       </c>
@@ -28499,7 +28499,7 @@
       <c r="W370" s="17"/>
       <c r="X370" s="17"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" ht="15.75" hidden="1" customHeight="1">
       <c r="A371" s="9">
         <v>104729.0</v>
       </c>
@@ -28562,7 +28562,7 @@
       <c r="W371" s="17"/>
       <c r="X371" s="17"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" ht="15.75" hidden="1" customHeight="1">
       <c r="A372" s="9">
         <v>104724.0</v>
       </c>
@@ -28625,7 +28625,7 @@
       <c r="W372" s="17"/>
       <c r="X372" s="17"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" ht="15.75" hidden="1" customHeight="1">
       <c r="A373" s="9">
         <v>104726.0</v>
       </c>
@@ -28688,7 +28688,7 @@
       <c r="W373" s="17"/>
       <c r="X373" s="17"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" ht="15.75" hidden="1" customHeight="1">
       <c r="A374" s="9">
         <v>104728.0</v>
       </c>
@@ -28751,7 +28751,7 @@
       <c r="W374" s="17"/>
       <c r="X374" s="17"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" ht="15.75" hidden="1" customHeight="1">
       <c r="A375" s="9">
         <v>104727.0</v>
       </c>
@@ -28814,7 +28814,7 @@
       <c r="W375" s="17"/>
       <c r="X375" s="17"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" ht="15.75" hidden="1" customHeight="1">
       <c r="A376" s="9">
         <v>104725.0</v>
       </c>
@@ -28877,7 +28877,7 @@
       <c r="W376" s="17"/>
       <c r="X376" s="17"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" ht="15.75" hidden="1" customHeight="1">
       <c r="A377" s="9">
         <v>99996.0</v>
       </c>
@@ -28940,7 +28940,7 @@
       <c r="W377" s="21"/>
       <c r="X377" s="21"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" ht="15.75" hidden="1" customHeight="1">
       <c r="A378" s="9">
         <v>99999.0</v>
       </c>
@@ -29003,7 +29003,7 @@
       <c r="W378" s="17"/>
       <c r="X378" s="17"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" ht="15.75" hidden="1" customHeight="1">
       <c r="A379" s="9">
         <v>99997.0</v>
       </c>
@@ -29066,7 +29066,7 @@
       <c r="W379" s="17"/>
       <c r="X379" s="17"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" ht="15.75" hidden="1" customHeight="1">
       <c r="A380" s="9">
         <v>99998.0</v>
       </c>
@@ -29129,7 +29129,7 @@
       <c r="W380" s="17"/>
       <c r="X380" s="17"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" ht="15.75" hidden="1" customHeight="1">
       <c r="A381" s="9">
         <v>100000.0</v>
       </c>
@@ -29192,7 +29192,7 @@
       <c r="W381" s="17"/>
       <c r="X381" s="17"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" ht="15.75" hidden="1" customHeight="1">
       <c r="A382" s="9">
         <v>100004.0</v>
       </c>
@@ -29255,7 +29255,7 @@
       <c r="W382" s="17"/>
       <c r="X382" s="17"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" ht="15.75" hidden="1" customHeight="1">
       <c r="A383" s="9">
         <v>100002.0</v>
       </c>
@@ -29318,7 +29318,7 @@
       <c r="W383" s="17"/>
       <c r="X383" s="17"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" ht="15.75" hidden="1" customHeight="1">
       <c r="A384" s="9">
         <v>100001.0</v>
       </c>
@@ -29381,7 +29381,7 @@
       <c r="W384" s="17"/>
       <c r="X384" s="17"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" ht="15.75" hidden="1" customHeight="1">
       <c r="A385" s="9">
         <v>100003.0</v>
       </c>
@@ -29444,7 +29444,7 @@
       <c r="W385" s="17"/>
       <c r="X385" s="17"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" ht="15.75" hidden="1" customHeight="1">
       <c r="A386" s="9">
         <v>100005.0</v>
       </c>
@@ -29507,7 +29507,7 @@
       <c r="W386" s="17"/>
       <c r="X386" s="17"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" ht="15.75" hidden="1" customHeight="1">
       <c r="A387" s="9">
         <v>104619.0</v>
       </c>
@@ -29570,7 +29570,7 @@
       <c r="W387" s="17"/>
       <c r="X387" s="17"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" ht="15.75" hidden="1" customHeight="1">
       <c r="A388" s="9">
         <v>104620.0</v>
       </c>
@@ -29633,7 +29633,7 @@
       <c r="W388" s="17"/>
       <c r="X388" s="17"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" ht="15.75" hidden="1" customHeight="1">
       <c r="A389" s="9">
         <v>104621.0</v>
       </c>
@@ -29696,7 +29696,7 @@
       <c r="W389" s="17"/>
       <c r="X389" s="17"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" ht="15.75" hidden="1" customHeight="1">
       <c r="A390" s="9">
         <v>104622.0</v>
       </c>
@@ -29759,7 +29759,7 @@
       <c r="W390" s="17"/>
       <c r="X390" s="17"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" ht="15.75" hidden="1" customHeight="1">
       <c r="A391" s="9">
         <v>104623.0</v>
       </c>
@@ -29822,7 +29822,7 @@
       <c r="W391" s="17"/>
       <c r="X391" s="17"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" ht="15.75" hidden="1" customHeight="1">
       <c r="A392" s="9">
         <v>104624.0</v>
       </c>
@@ -29885,7 +29885,7 @@
       <c r="W392" s="17"/>
       <c r="X392" s="17"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" ht="15.75" hidden="1" customHeight="1">
       <c r="A393" s="9">
         <v>104625.0</v>
       </c>
@@ -29948,7 +29948,7 @@
       <c r="W393" s="17"/>
       <c r="X393" s="17"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" ht="15.75" hidden="1" customHeight="1">
       <c r="A394" s="9">
         <v>99174.0</v>
       </c>
@@ -30011,7 +30011,7 @@
       <c r="W394" s="17"/>
       <c r="X394" s="17"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" ht="15.75" hidden="1" customHeight="1">
       <c r="A395" s="9">
         <v>99172.0</v>
       </c>
@@ -30074,7 +30074,7 @@
       <c r="W395" s="17"/>
       <c r="X395" s="17"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" ht="15.75" hidden="1" customHeight="1">
       <c r="A396" s="9">
         <v>99171.0</v>
       </c>
@@ -30137,7 +30137,7 @@
       <c r="W396" s="17"/>
       <c r="X396" s="17"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" ht="15.75" hidden="1" customHeight="1">
       <c r="A397" s="9">
         <v>99175.0</v>
       </c>
@@ -30200,7 +30200,7 @@
       <c r="W397" s="17"/>
       <c r="X397" s="17"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" ht="15.75" hidden="1" customHeight="1">
       <c r="A398" s="9">
         <v>99170.0</v>
       </c>
@@ -30263,7 +30263,7 @@
       <c r="W398" s="17"/>
       <c r="X398" s="17"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" ht="15.75" hidden="1" customHeight="1">
       <c r="A399" s="9">
         <v>99169.0</v>
       </c>
@@ -30326,7 +30326,7 @@
       <c r="W399" s="17"/>
       <c r="X399" s="17"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" ht="15.75" hidden="1" customHeight="1">
       <c r="A400" s="9">
         <v>99173.0</v>
       </c>
@@ -30389,7 +30389,7 @@
       <c r="W400" s="17"/>
       <c r="X400" s="17"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" ht="15.75" hidden="1" customHeight="1">
       <c r="A401" s="9">
         <v>106248.0</v>
       </c>
@@ -30452,7 +30452,7 @@
       <c r="W401" s="17"/>
       <c r="X401" s="17"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" ht="15.75" hidden="1" customHeight="1">
       <c r="A402" s="9">
         <v>99182.0</v>
       </c>
@@ -30515,7 +30515,7 @@
       <c r="W402" s="17"/>
       <c r="X402" s="17"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" ht="15.75" hidden="1" customHeight="1">
       <c r="A403" s="9">
         <v>99176.0</v>
       </c>
@@ -30578,7 +30578,7 @@
       <c r="W403" s="17"/>
       <c r="X403" s="17"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" ht="15.75" hidden="1" customHeight="1">
       <c r="A404" s="9">
         <v>99178.0</v>
       </c>
@@ -30641,7 +30641,7 @@
       <c r="W404" s="17"/>
       <c r="X404" s="17"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" ht="15.75" hidden="1" customHeight="1">
       <c r="A405" s="9">
         <v>99177.0</v>
       </c>
@@ -30704,7 +30704,7 @@
       <c r="W405" s="17"/>
       <c r="X405" s="17"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" ht="15.75" hidden="1" customHeight="1">
       <c r="A406" s="9">
         <v>99181.0</v>
       </c>
@@ -30767,7 +30767,7 @@
       <c r="W406" s="17"/>
       <c r="X406" s="17"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" ht="15.75" hidden="1" customHeight="1">
       <c r="A407" s="9">
         <v>99179.0</v>
       </c>
@@ -30830,7 +30830,7 @@
       <c r="W407" s="17"/>
       <c r="X407" s="17"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" ht="15.75" hidden="1" customHeight="1">
       <c r="A408" s="9">
         <v>99180.0</v>
       </c>
@@ -30893,7 +30893,7 @@
       <c r="W408" s="17"/>
       <c r="X408" s="17"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" ht="15.75" hidden="1" customHeight="1">
       <c r="A409" s="9">
         <v>104827.0</v>
       </c>
@@ -30956,7 +30956,7 @@
       <c r="W409" s="17"/>
       <c r="X409" s="17"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" ht="15.75" hidden="1" customHeight="1">
       <c r="A410" s="9">
         <v>99183.0</v>
       </c>
@@ -31019,7 +31019,7 @@
       <c r="W410" s="17"/>
       <c r="X410" s="17"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" ht="15.75" hidden="1" customHeight="1">
       <c r="A411" s="9">
         <v>99189.0</v>
       </c>
@@ -31082,7 +31082,7 @@
       <c r="W411" s="17"/>
       <c r="X411" s="17"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" ht="15.75" hidden="1" customHeight="1">
       <c r="A412" s="9">
         <v>99187.0</v>
       </c>
@@ -31145,7 +31145,7 @@
       <c r="W412" s="17"/>
       <c r="X412" s="17"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" ht="15.75" hidden="1" customHeight="1">
       <c r="A413" s="9">
         <v>99184.0</v>
       </c>
@@ -31208,7 +31208,7 @@
       <c r="W413" s="17"/>
       <c r="X413" s="17"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" ht="15.75" hidden="1" customHeight="1">
       <c r="A414" s="9">
         <v>99188.0</v>
       </c>
@@ -31271,7 +31271,7 @@
       <c r="W414" s="17"/>
       <c r="X414" s="17"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" ht="15.75" hidden="1" customHeight="1">
       <c r="A415" s="9">
         <v>99186.0</v>
       </c>
@@ -31334,7 +31334,7 @@
       <c r="W415" s="17"/>
       <c r="X415" s="17"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" ht="15.75" hidden="1" customHeight="1">
       <c r="A416" s="9">
         <v>99185.0</v>
       </c>
@@ -31397,7 +31397,7 @@
       <c r="W416" s="17"/>
       <c r="X416" s="17"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" ht="15.75" hidden="1" customHeight="1">
       <c r="A417" s="9">
         <v>99194.0</v>
       </c>
@@ -31460,7 +31460,7 @@
       <c r="W417" s="17"/>
       <c r="X417" s="17"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" ht="15.75" hidden="1" customHeight="1">
       <c r="A418" s="9">
         <v>99191.0</v>
       </c>
@@ -31523,7 +31523,7 @@
       <c r="W418" s="17"/>
       <c r="X418" s="17"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" ht="15.75" hidden="1" customHeight="1">
       <c r="A419" s="9">
         <v>99198.0</v>
       </c>
@@ -31586,7 +31586,7 @@
       <c r="W419" s="17"/>
       <c r="X419" s="17"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" ht="15.75" hidden="1" customHeight="1">
       <c r="A420" s="9">
         <v>99195.0</v>
       </c>
@@ -31649,7 +31649,7 @@
       <c r="W420" s="17"/>
       <c r="X420" s="17"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" ht="15.75" hidden="1" customHeight="1">
       <c r="A421" s="9">
         <v>99190.0</v>
       </c>
@@ -31712,7 +31712,7 @@
       <c r="W421" s="17"/>
       <c r="X421" s="17"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" ht="15.75" hidden="1" customHeight="1">
       <c r="A422" s="9">
         <v>99201.0</v>
       </c>
@@ -31775,7 +31775,7 @@
       <c r="W422" s="17"/>
       <c r="X422" s="17"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" ht="15.75" hidden="1" customHeight="1">
       <c r="A423" s="9">
         <v>107240.0</v>
       </c>
@@ -31838,7 +31838,7 @@
       <c r="W423" s="17"/>
       <c r="X423" s="17"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" ht="15.75" hidden="1" customHeight="1">
       <c r="A424" s="9">
         <v>107241.0</v>
       </c>
@@ -31901,7 +31901,7 @@
       <c r="W424" s="17"/>
       <c r="X424" s="17"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" ht="15.75" hidden="1" customHeight="1">
       <c r="A425" s="9">
         <v>107242.0</v>
       </c>
@@ -31964,7 +31964,7 @@
       <c r="W425" s="17"/>
       <c r="X425" s="17"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" ht="15.75" hidden="1" customHeight="1">
       <c r="A426" s="9">
         <v>107244.0</v>
       </c>
@@ -32027,7 +32027,7 @@
       <c r="W426" s="17"/>
       <c r="X426" s="17"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" ht="15.75" hidden="1" customHeight="1">
       <c r="A427" s="9">
         <v>107243.0</v>
       </c>
@@ -32090,7 +32090,7 @@
       <c r="W427" s="17"/>
       <c r="X427" s="17"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" ht="15.75" hidden="1" customHeight="1">
       <c r="A428" s="9">
         <v>107245.0</v>
       </c>
@@ -32153,7 +32153,7 @@
       <c r="W428" s="17"/>
       <c r="X428" s="17"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" ht="15.75" hidden="1" customHeight="1">
       <c r="A429" s="9">
         <v>101011.0</v>
       </c>
@@ -32216,7 +32216,7 @@
       <c r="W429" s="17"/>
       <c r="X429" s="17"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" ht="15.75" hidden="1" customHeight="1">
       <c r="A430" s="9">
         <v>101009.0</v>
       </c>
@@ -32279,7 +32279,7 @@
       <c r="W430" s="17"/>
       <c r="X430" s="17"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" ht="15.75" hidden="1" customHeight="1">
       <c r="A431" s="9">
         <v>101010.0</v>
       </c>
@@ -32342,7 +32342,7 @@
       <c r="W431" s="17"/>
       <c r="X431" s="17"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" ht="15.75" hidden="1" customHeight="1">
       <c r="A432" s="9">
         <v>101005.0</v>
       </c>
@@ -32405,7 +32405,7 @@
       <c r="W432" s="17"/>
       <c r="X432" s="17"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" ht="15.75" hidden="1" customHeight="1">
       <c r="A433" s="9">
         <v>101006.0</v>
       </c>
@@ -32468,7 +32468,7 @@
       <c r="W433" s="17"/>
       <c r="X433" s="17"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" ht="15.75" hidden="1" customHeight="1">
       <c r="A434" s="9">
         <v>101007.0</v>
       </c>
@@ -32531,7 +32531,7 @@
       <c r="W434" s="17"/>
       <c r="X434" s="17"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" ht="15.75" hidden="1" customHeight="1">
       <c r="A435" s="9">
         <v>101008.0</v>
       </c>
@@ -32657,7 +32657,7 @@
       <c r="W436" s="17"/>
       <c r="X436" s="17"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" ht="15.75" hidden="1" customHeight="1">
       <c r="A437" s="9">
         <v>101015.0</v>
       </c>
@@ -32720,7 +32720,7 @@
       <c r="W437" s="17"/>
       <c r="X437" s="17"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" ht="15.75" hidden="1" customHeight="1">
       <c r="A438" s="9">
         <v>101018.0</v>
       </c>
@@ -32783,7 +32783,7 @@
       <c r="W438" s="17"/>
       <c r="X438" s="17"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" ht="15.75" hidden="1" customHeight="1">
       <c r="A439" s="9">
         <v>101019.0</v>
       </c>
@@ -32846,7 +32846,7 @@
       <c r="W439" s="17"/>
       <c r="X439" s="17"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" ht="15.75" hidden="1" customHeight="1">
       <c r="A440" s="9">
         <v>101016.0</v>
       </c>
@@ -32909,7 +32909,7 @@
       <c r="W440" s="17"/>
       <c r="X440" s="17"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" ht="15.75" hidden="1" customHeight="1">
       <c r="A441" s="9">
         <v>101013.0</v>
       </c>
@@ -32972,7 +32972,7 @@
       <c r="W441" s="17"/>
       <c r="X441" s="17"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" ht="15.75" hidden="1" customHeight="1">
       <c r="A442" s="9">
         <v>101012.0</v>
       </c>
@@ -33035,7 +33035,7 @@
       <c r="W442" s="17"/>
       <c r="X442" s="17"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" ht="15.75" hidden="1" customHeight="1">
       <c r="A443" s="9">
         <v>101014.0</v>
       </c>
@@ -33098,7 +33098,7 @@
       <c r="W443" s="17"/>
       <c r="X443" s="17"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" ht="15.75" hidden="1" customHeight="1">
       <c r="A444" s="9">
         <v>101026.0</v>
       </c>
@@ -33161,7 +33161,7 @@
       <c r="W444" s="17"/>
       <c r="X444" s="17"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" ht="15.75" hidden="1" customHeight="1">
       <c r="A445" s="9">
         <v>101025.0</v>
       </c>
@@ -33224,7 +33224,7 @@
       <c r="W445" s="17"/>
       <c r="X445" s="17"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" ht="15.75" hidden="1" customHeight="1">
       <c r="A446" s="9">
         <v>101023.0</v>
       </c>
@@ -33287,7 +33287,7 @@
       <c r="W446" s="17"/>
       <c r="X446" s="17"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" ht="15.75" hidden="1" customHeight="1">
       <c r="A447" s="9">
         <v>101022.0</v>
       </c>
@@ -33350,7 +33350,7 @@
       <c r="W447" s="17"/>
       <c r="X447" s="17"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" ht="15.75" hidden="1" customHeight="1">
       <c r="A448" s="9">
         <v>101024.0</v>
       </c>
@@ -33413,7 +33413,7 @@
       <c r="W448" s="17"/>
       <c r="X448" s="17"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" ht="15.75" hidden="1" customHeight="1">
       <c r="A449" s="9">
         <v>101021.0</v>
       </c>
@@ -33476,7 +33476,7 @@
       <c r="W449" s="17"/>
       <c r="X449" s="17"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" ht="15.75" hidden="1" customHeight="1">
       <c r="A450" s="9">
         <v>101020.0</v>
       </c>
@@ -33539,7 +33539,7 @@
       <c r="W450" s="17"/>
       <c r="X450" s="17"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" ht="15.75" hidden="1" customHeight="1">
       <c r="A451" s="9">
         <v>105162.0</v>
       </c>
@@ -33602,7 +33602,7 @@
       <c r="W451" s="17"/>
       <c r="X451" s="17"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" ht="15.75" hidden="1" customHeight="1">
       <c r="A452" s="9">
         <v>105163.0</v>
       </c>
@@ -33665,7 +33665,7 @@
       <c r="W452" s="17"/>
       <c r="X452" s="17"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" ht="15.75" hidden="1" customHeight="1">
       <c r="A453" s="9">
         <v>105164.0</v>
       </c>
@@ -33728,7 +33728,7 @@
       <c r="W453" s="17"/>
       <c r="X453" s="17"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" ht="15.75" hidden="1" customHeight="1">
       <c r="A454" s="9">
         <v>105161.0</v>
       </c>
@@ -33791,7 +33791,7 @@
       <c r="W454" s="17"/>
       <c r="X454" s="17"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" ht="15.75" hidden="1" customHeight="1">
       <c r="A455" s="9">
         <v>105159.0</v>
       </c>
@@ -33854,7 +33854,7 @@
       <c r="W455" s="17"/>
       <c r="X455" s="17"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" ht="15.75" hidden="1" customHeight="1">
       <c r="A456" s="9">
         <v>105158.0</v>
       </c>
@@ -33917,7 +33917,7 @@
       <c r="W456" s="17"/>
       <c r="X456" s="17"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" ht="15.75" hidden="1" customHeight="1">
       <c r="A457" s="9">
         <v>104741.0</v>
       </c>
@@ -33980,7 +33980,7 @@
       <c r="W457" s="17"/>
       <c r="X457" s="17"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" ht="15.75" hidden="1" customHeight="1">
       <c r="A458" s="9">
         <v>104742.0</v>
       </c>
@@ -34043,7 +34043,7 @@
       <c r="W458" s="17"/>
       <c r="X458" s="17"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" ht="15.75" hidden="1" customHeight="1">
       <c r="A459" s="9">
         <v>104813.0</v>
       </c>
@@ -34106,7 +34106,7 @@
       <c r="W459" s="17"/>
       <c r="X459" s="17"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" ht="15.75" hidden="1" customHeight="1">
       <c r="A460" s="9">
         <v>104743.0</v>
       </c>
@@ -34169,7 +34169,7 @@
       <c r="W460" s="17"/>
       <c r="X460" s="17"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" ht="15.75" hidden="1" customHeight="1">
       <c r="A461" s="9">
         <v>104744.0</v>
       </c>
@@ -34232,7 +34232,7 @@
       <c r="W461" s="17"/>
       <c r="X461" s="17"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" ht="15.75" hidden="1" customHeight="1">
       <c r="A462" s="9">
         <v>104814.0</v>
       </c>
@@ -34295,7 +34295,7 @@
       <c r="W462" s="17"/>
       <c r="X462" s="17"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" ht="15.75" hidden="1" customHeight="1">
       <c r="A463" s="9">
         <v>104740.0</v>
       </c>
@@ -34358,7 +34358,7 @@
       <c r="W463" s="21"/>
       <c r="X463" s="21"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" ht="15.75" hidden="1" customHeight="1">
       <c r="A464" s="9">
         <v>104812.0</v>
       </c>
@@ -34421,7 +34421,7 @@
       <c r="W464" s="17"/>
       <c r="X464" s="17"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" ht="15.75" hidden="1" customHeight="1">
       <c r="A465" s="9">
         <v>100010.0</v>
       </c>
@@ -34484,7 +34484,7 @@
       <c r="W465" s="17"/>
       <c r="X465" s="17"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" ht="15.75" hidden="1" customHeight="1">
       <c r="A466" s="9">
         <v>100009.0</v>
       </c>
@@ -34547,7 +34547,7 @@
       <c r="W466" s="17"/>
       <c r="X466" s="17"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" ht="15.75" hidden="1" customHeight="1">
       <c r="A467" s="9">
         <v>100006.0</v>
       </c>
@@ -34610,7 +34610,7 @@
       <c r="W467" s="17"/>
       <c r="X467" s="17"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" ht="15.75" hidden="1" customHeight="1">
       <c r="A468" s="9">
         <v>100007.0</v>
       </c>
@@ -34673,7 +34673,7 @@
       <c r="W468" s="17"/>
       <c r="X468" s="17"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" ht="15.75" hidden="1" customHeight="1">
       <c r="A469" s="9">
         <v>100011.0</v>
       </c>
@@ -34736,7 +34736,7 @@
       <c r="W469" s="17"/>
       <c r="X469" s="17"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" ht="15.75" hidden="1" customHeight="1">
       <c r="A470" s="9">
         <v>100008.0</v>
       </c>
@@ -34799,7 +34799,7 @@
       <c r="W470" s="17"/>
       <c r="X470" s="17"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" ht="15.75" hidden="1" customHeight="1">
       <c r="A471" s="9">
         <v>100015.0</v>
       </c>
@@ -34862,7 +34862,7 @@
       <c r="W471" s="17"/>
       <c r="X471" s="17"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" ht="15.75" hidden="1" customHeight="1">
       <c r="A472" s="9">
         <v>100012.0</v>
       </c>
@@ -34925,7 +34925,7 @@
       <c r="W472" s="17"/>
       <c r="X472" s="17"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" ht="15.75" hidden="1" customHeight="1">
       <c r="A473" s="9">
         <v>100016.0</v>
       </c>
@@ -34988,7 +34988,7 @@
       <c r="W473" s="17"/>
       <c r="X473" s="17"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" ht="15.75" hidden="1" customHeight="1">
       <c r="A474" s="9">
         <v>100013.0</v>
       </c>
@@ -35051,7 +35051,7 @@
       <c r="W474" s="17"/>
       <c r="X474" s="17"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" ht="15.75" hidden="1" customHeight="1">
       <c r="A475" s="9">
         <v>100014.0</v>
       </c>
@@ -35114,7 +35114,7 @@
       <c r="W475" s="17"/>
       <c r="X475" s="17"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" ht="15.75" hidden="1" customHeight="1">
       <c r="A476" s="9">
         <v>104748.0</v>
       </c>
@@ -35177,7 +35177,7 @@
       <c r="W476" s="17"/>
       <c r="X476" s="17"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" ht="15.75" hidden="1" customHeight="1">
       <c r="A477" s="9">
         <v>104745.0</v>
       </c>
@@ -35240,7 +35240,7 @@
       <c r="W477" s="17"/>
       <c r="X477" s="17"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" ht="15.75" hidden="1" customHeight="1">
       <c r="A478" s="9">
         <v>104750.0</v>
       </c>
@@ -35303,7 +35303,7 @@
       <c r="W478" s="17"/>
       <c r="X478" s="17"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" ht="15.75" hidden="1" customHeight="1">
       <c r="A479" s="9">
         <v>104747.0</v>
       </c>
@@ -35366,7 +35366,7 @@
       <c r="W479" s="21"/>
       <c r="X479" s="21"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" ht="15.75" hidden="1" customHeight="1">
       <c r="A480" s="9">
         <v>104749.0</v>
       </c>
@@ -35429,7 +35429,7 @@
       <c r="W480" s="17"/>
       <c r="X480" s="17"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" ht="15.75" hidden="1" customHeight="1">
       <c r="A481" s="9">
         <v>104751.0</v>
       </c>
@@ -35492,7 +35492,7 @@
       <c r="W481" s="17"/>
       <c r="X481" s="17"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" ht="15.75" hidden="1" customHeight="1">
       <c r="A482" s="9">
         <v>104746.0</v>
       </c>
@@ -35555,7 +35555,7 @@
       <c r="W482" s="17"/>
       <c r="X482" s="17"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" ht="15.75" hidden="1" customHeight="1">
       <c r="A483" s="9">
         <v>100018.0</v>
       </c>
@@ -35618,7 +35618,7 @@
       <c r="W483" s="17"/>
       <c r="X483" s="17"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" ht="15.75" hidden="1" customHeight="1">
       <c r="A484" s="9">
         <v>100019.0</v>
       </c>
@@ -35681,7 +35681,7 @@
       <c r="W484" s="17"/>
       <c r="X484" s="17"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" ht="15.75" hidden="1" customHeight="1">
       <c r="A485" s="9">
         <v>100022.0</v>
       </c>
@@ -35744,7 +35744,7 @@
       <c r="W485" s="17"/>
       <c r="X485" s="17"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" ht="15.75" hidden="1" customHeight="1">
       <c r="A486" s="9">
         <v>100023.0</v>
       </c>
@@ -35807,7 +35807,7 @@
       <c r="W486" s="17"/>
       <c r="X486" s="17"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" ht="15.75" hidden="1" customHeight="1">
       <c r="A487" s="9">
         <v>100021.0</v>
       </c>
@@ -35870,7 +35870,7 @@
       <c r="W487" s="17"/>
       <c r="X487" s="17"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" ht="15.75" hidden="1" customHeight="1">
       <c r="A488" s="9">
         <v>100017.0</v>
       </c>
@@ -35933,7 +35933,7 @@
       <c r="W488" s="17"/>
       <c r="X488" s="17"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" ht="15.75" hidden="1" customHeight="1">
       <c r="A489" s="9">
         <v>100020.0</v>
       </c>
@@ -35996,7 +35996,7 @@
       <c r="W489" s="17"/>
       <c r="X489" s="17"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" ht="15.75" hidden="1" customHeight="1">
       <c r="A490" s="9">
         <v>100025.0</v>
       </c>
@@ -36059,7 +36059,7 @@
       <c r="W490" s="17"/>
       <c r="X490" s="17"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" ht="15.75" hidden="1" customHeight="1">
       <c r="A491" s="9">
         <v>100026.0</v>
       </c>
@@ -36122,7 +36122,7 @@
       <c r="W491" s="17"/>
       <c r="X491" s="17"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" ht="15.75" hidden="1" customHeight="1">
       <c r="A492" s="9">
         <v>100027.0</v>
       </c>
@@ -36185,7 +36185,7 @@
       <c r="W492" s="17"/>
       <c r="X492" s="17"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" ht="15.75" hidden="1" customHeight="1">
       <c r="A493" s="9">
         <v>100024.0</v>
       </c>
@@ -36248,7 +36248,7 @@
       <c r="W493" s="17"/>
       <c r="X493" s="17"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" ht="15.75" hidden="1" customHeight="1">
       <c r="A494" s="9">
         <v>100030.0</v>
       </c>
@@ -36311,7 +36311,7 @@
       <c r="W494" s="17"/>
       <c r="X494" s="17"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" ht="15.75" hidden="1" customHeight="1">
       <c r="A495" s="9">
         <v>100029.0</v>
       </c>
@@ -36374,7 +36374,7 @@
       <c r="W495" s="17"/>
       <c r="X495" s="17"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" ht="15.75" hidden="1" customHeight="1">
       <c r="A496" s="9">
         <v>100028.0</v>
       </c>
@@ -36437,7 +36437,7 @@
       <c r="W496" s="17"/>
       <c r="X496" s="17"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" ht="15.75" hidden="1" customHeight="1">
       <c r="A497" s="9">
         <v>104596.0</v>
       </c>
@@ -36500,7 +36500,7 @@
       <c r="W497" s="17"/>
       <c r="X497" s="17"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" ht="15.75" hidden="1" customHeight="1">
       <c r="A498" s="9">
         <v>104597.0</v>
       </c>
@@ -36563,7 +36563,7 @@
       <c r="W498" s="17"/>
       <c r="X498" s="17"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" ht="15.75" hidden="1" customHeight="1">
       <c r="A499" s="9">
         <v>104598.0</v>
       </c>
@@ -36626,7 +36626,7 @@
       <c r="W499" s="17"/>
       <c r="X499" s="17"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" ht="15.75" hidden="1" customHeight="1">
       <c r="A500" s="9">
         <v>104600.0</v>
       </c>
@@ -36689,7 +36689,7 @@
       <c r="W500" s="17"/>
       <c r="X500" s="17"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" ht="15.75" hidden="1" customHeight="1">
       <c r="A501" s="9">
         <v>104602.0</v>
       </c>
@@ -36752,7 +36752,7 @@
       <c r="W501" s="17"/>
       <c r="X501" s="17"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" ht="15.75" hidden="1" customHeight="1">
       <c r="A502" s="9">
         <v>104601.0</v>
       </c>
@@ -36815,7 +36815,7 @@
       <c r="W502" s="17"/>
       <c r="X502" s="17"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" ht="15.75" hidden="1" customHeight="1">
       <c r="A503" s="9">
         <v>99280.0</v>
       </c>
@@ -36878,7 +36878,7 @@
       <c r="W503" s="17"/>
       <c r="X503" s="17"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" ht="15.75" hidden="1" customHeight="1">
       <c r="A504" s="9">
         <v>99281.0</v>
       </c>
@@ -36941,7 +36941,7 @@
       <c r="W504" s="17"/>
       <c r="X504" s="17"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" ht="15.75" hidden="1" customHeight="1">
       <c r="A505" s="9">
         <v>99279.0</v>
       </c>
@@ -37004,7 +37004,7 @@
       <c r="W505" s="17"/>
       <c r="X505" s="17"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" ht="15.75" hidden="1" customHeight="1">
       <c r="A506" s="9">
         <v>99282.0</v>
       </c>
@@ -37067,7 +37067,7 @@
       <c r="W506" s="17"/>
       <c r="X506" s="17"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" ht="15.75" hidden="1" customHeight="1">
       <c r="A507" s="9">
         <v>99283.0</v>
       </c>
@@ -37130,7 +37130,7 @@
       <c r="W507" s="17"/>
       <c r="X507" s="17"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" ht="15.75" hidden="1" customHeight="1">
       <c r="A508" s="9">
         <v>99284.0</v>
       </c>
@@ -37193,7 +37193,7 @@
       <c r="W508" s="17"/>
       <c r="X508" s="17"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" ht="15.75" hidden="1" customHeight="1">
       <c r="A509" s="9">
         <v>99288.0</v>
       </c>
@@ -37256,7 +37256,7 @@
       <c r="W509" s="17"/>
       <c r="X509" s="17"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" ht="15.75" hidden="1" customHeight="1">
       <c r="A510" s="9">
         <v>99289.0</v>
       </c>
@@ -37319,7 +37319,7 @@
       <c r="W510" s="17"/>
       <c r="X510" s="17"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" ht="15.75" hidden="1" customHeight="1">
       <c r="A511" s="9">
         <v>99287.0</v>
       </c>
@@ -37382,7 +37382,7 @@
       <c r="W511" s="17"/>
       <c r="X511" s="17"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" ht="15.75" hidden="1" customHeight="1">
       <c r="A512" s="9">
         <v>99286.0</v>
       </c>
@@ -37445,7 +37445,7 @@
       <c r="W512" s="17"/>
       <c r="X512" s="17"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" ht="15.75" hidden="1" customHeight="1">
       <c r="A513" s="9">
         <v>99290.0</v>
       </c>
@@ -37508,7 +37508,7 @@
       <c r="W513" s="17"/>
       <c r="X513" s="17"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" ht="15.75" hidden="1" customHeight="1">
       <c r="A514" s="9">
         <v>99285.0</v>
       </c>
@@ -37571,7 +37571,7 @@
       <c r="W514" s="17"/>
       <c r="X514" s="17"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" ht="15.75" hidden="1" customHeight="1">
       <c r="A515" s="9">
         <v>99294.0</v>
       </c>
@@ -37634,7 +37634,7 @@
       <c r="W515" s="17"/>
       <c r="X515" s="17"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" ht="15.75" hidden="1" customHeight="1">
       <c r="A516" s="9">
         <v>99295.0</v>
       </c>
@@ -37697,7 +37697,7 @@
       <c r="W516" s="17"/>
       <c r="X516" s="17"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" ht="15.75" hidden="1" customHeight="1">
       <c r="A517" s="9">
         <v>99292.0</v>
       </c>
@@ -37760,7 +37760,7 @@
       <c r="W517" s="17"/>
       <c r="X517" s="17"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" ht="15.75" hidden="1" customHeight="1">
       <c r="A518" s="9">
         <v>99293.0</v>
       </c>
@@ -37823,7 +37823,7 @@
       <c r="W518" s="17"/>
       <c r="X518" s="17"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" ht="15.75" hidden="1" customHeight="1">
       <c r="A519" s="9">
         <v>99296.0</v>
       </c>
@@ -37886,7 +37886,7 @@
       <c r="W519" s="17"/>
       <c r="X519" s="17"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" ht="15.75" hidden="1" customHeight="1">
       <c r="A520" s="9">
         <v>99291.0</v>
       </c>
@@ -37949,7 +37949,7 @@
       <c r="W520" s="17"/>
       <c r="X520" s="17"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" ht="15.75" hidden="1" customHeight="1">
       <c r="A521" s="9">
         <v>104573.0</v>
       </c>
@@ -38012,7 +38012,7 @@
       <c r="W521" s="17"/>
       <c r="X521" s="17"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" ht="15.75" hidden="1" customHeight="1">
       <c r="A522" s="9">
         <v>104572.0</v>
       </c>
@@ -38075,7 +38075,7 @@
       <c r="W522" s="17"/>
       <c r="X522" s="17"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" ht="15.75" hidden="1" customHeight="1">
       <c r="A523" s="9">
         <v>104574.0</v>
       </c>
@@ -38138,7 +38138,7 @@
       <c r="W523" s="17"/>
       <c r="X523" s="17"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" ht="15.75" hidden="1" customHeight="1">
       <c r="A524" s="9">
         <v>104575.0</v>
       </c>
@@ -38201,7 +38201,7 @@
       <c r="W524" s="17"/>
       <c r="X524" s="17"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" ht="15.75" hidden="1" customHeight="1">
       <c r="A525" s="9">
         <v>104576.0</v>
       </c>
@@ -38264,7 +38264,7 @@
       <c r="W525" s="17"/>
       <c r="X525" s="17"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" ht="15.75" hidden="1" customHeight="1">
       <c r="A526" s="9">
         <v>104577.0</v>
       </c>
@@ -38327,7 +38327,7 @@
       <c r="W526" s="17"/>
       <c r="X526" s="17"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" ht="15.75" hidden="1" customHeight="1">
       <c r="A527" s="9">
         <v>99328.0</v>
       </c>
@@ -38390,7 +38390,7 @@
       <c r="W527" s="17"/>
       <c r="X527" s="17"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" ht="15.75" hidden="1" customHeight="1">
       <c r="A528" s="9">
         <v>99326.0</v>
       </c>
@@ -38453,7 +38453,7 @@
       <c r="W528" s="17"/>
       <c r="X528" s="17"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" ht="15.75" hidden="1" customHeight="1">
       <c r="A529" s="9">
         <v>99325.0</v>
       </c>
@@ -38516,7 +38516,7 @@
       <c r="W529" s="17"/>
       <c r="X529" s="17"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" ht="15.75" hidden="1" customHeight="1">
       <c r="A530" s="9">
         <v>99327.0</v>
       </c>
@@ -38579,7 +38579,7 @@
       <c r="W530" s="17"/>
       <c r="X530" s="17"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" ht="15.75" hidden="1" customHeight="1">
       <c r="A531" s="9">
         <v>99329.0</v>
       </c>
@@ -38642,7 +38642,7 @@
       <c r="W531" s="17"/>
       <c r="X531" s="17"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" ht="15.75" hidden="1" customHeight="1">
       <c r="A532" s="9">
         <v>99333.0</v>
       </c>
@@ -38705,7 +38705,7 @@
       <c r="W532" s="17"/>
       <c r="X532" s="17"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" ht="15.75" hidden="1" customHeight="1">
       <c r="A533" s="9">
         <v>99330.0</v>
       </c>
@@ -38768,7 +38768,7 @@
       <c r="W533" s="17"/>
       <c r="X533" s="17"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" ht="15.75" hidden="1" customHeight="1">
       <c r="A534" s="9">
         <v>99331.0</v>
       </c>
@@ -38831,7 +38831,7 @@
       <c r="W534" s="17"/>
       <c r="X534" s="17"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" ht="15.75" hidden="1" customHeight="1">
       <c r="A535" s="9">
         <v>99332.0</v>
       </c>
@@ -38894,7 +38894,7 @@
       <c r="W535" s="17"/>
       <c r="X535" s="17"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" ht="15.75" hidden="1" customHeight="1">
       <c r="A536" s="9">
         <v>99334.0</v>
       </c>
@@ -38957,7 +38957,7 @@
       <c r="W536" s="17"/>
       <c r="X536" s="17"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" ht="15.75" hidden="1" customHeight="1">
       <c r="A537" s="9">
         <v>104757.0</v>
       </c>
@@ -39020,7 +39020,7 @@
       <c r="W537" s="17"/>
       <c r="X537" s="17"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" ht="15.75" hidden="1" customHeight="1">
       <c r="A538" s="9">
         <v>104752.0</v>
       </c>
@@ -39083,7 +39083,7 @@
       <c r="W538" s="17"/>
       <c r="X538" s="17"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" ht="15.75" hidden="1" customHeight="1">
       <c r="A539" s="9">
         <v>104756.0</v>
       </c>
@@ -39146,7 +39146,7 @@
       <c r="W539" s="17"/>
       <c r="X539" s="17"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" ht="15.75" hidden="1" customHeight="1">
       <c r="A540" s="9">
         <v>104753.0</v>
       </c>
@@ -39209,7 +39209,7 @@
       <c r="W540" s="17"/>
       <c r="X540" s="17"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" ht="15.75" hidden="1" customHeight="1">
       <c r="A541" s="9">
         <v>104755.0</v>
       </c>
@@ -39272,7 +39272,7 @@
       <c r="W541" s="17"/>
       <c r="X541" s="17"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" ht="15.75" hidden="1" customHeight="1">
       <c r="A542" s="9">
         <v>104754.0</v>
       </c>
@@ -39335,7 +39335,7 @@
       <c r="W542" s="17"/>
       <c r="X542" s="17"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" ht="15.75" hidden="1" customHeight="1">
       <c r="A543" s="9">
         <v>100037.0</v>
       </c>
@@ -39398,7 +39398,7 @@
       <c r="W543" s="17"/>
       <c r="X543" s="17"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" ht="15.75" hidden="1" customHeight="1">
       <c r="A544" s="9">
         <v>100034.0</v>
       </c>
@@ -39461,7 +39461,7 @@
       <c r="W544" s="17"/>
       <c r="X544" s="17"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" ht="15.75" hidden="1" customHeight="1">
       <c r="A545" s="9">
         <v>100031.0</v>
       </c>
@@ -39524,7 +39524,7 @@
       <c r="W545" s="17"/>
       <c r="X545" s="17"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" ht="15.75" hidden="1" customHeight="1">
       <c r="A546" s="9">
         <v>100033.0</v>
       </c>
@@ -39587,7 +39587,7 @@
       <c r="W546" s="17"/>
       <c r="X546" s="17"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" ht="15.75" hidden="1" customHeight="1">
       <c r="A547" s="9">
         <v>100036.0</v>
       </c>
@@ -39650,7 +39650,7 @@
       <c r="W547" s="17"/>
       <c r="X547" s="17"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" ht="15.75" hidden="1" customHeight="1">
       <c r="A548" s="9">
         <v>100032.0</v>
       </c>
@@ -39713,7 +39713,7 @@
       <c r="W548" s="17"/>
       <c r="X548" s="17"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" ht="15.75" hidden="1" customHeight="1">
       <c r="A549" s="9">
         <v>100035.0</v>
       </c>
@@ -39776,7 +39776,7 @@
       <c r="W549" s="17"/>
       <c r="X549" s="17"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" ht="15.75" hidden="1" customHeight="1">
       <c r="A550" s="9">
         <v>100039.0</v>
       </c>
@@ -39839,7 +39839,7 @@
       <c r="W550" s="17"/>
       <c r="X550" s="17"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" ht="15.75" hidden="1" customHeight="1">
       <c r="A551" s="9">
         <v>100038.0</v>
       </c>
@@ -39902,7 +39902,7 @@
       <c r="W551" s="17"/>
       <c r="X551" s="17"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" ht="15.75" hidden="1" customHeight="1">
       <c r="A552" s="9">
         <v>100043.0</v>
       </c>
@@ -39965,7 +39965,7 @@
       <c r="W552" s="17"/>
       <c r="X552" s="17"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" ht="15.75" hidden="1" customHeight="1">
       <c r="A553" s="9">
         <v>100042.0</v>
       </c>
@@ -40028,7 +40028,7 @@
       <c r="W553" s="17"/>
       <c r="X553" s="17"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" ht="15.75" hidden="1" customHeight="1">
       <c r="A554" s="9">
         <v>100041.0</v>
       </c>
@@ -40091,7 +40091,7 @@
       <c r="W554" s="17"/>
       <c r="X554" s="17"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" ht="15.75" hidden="1" customHeight="1">
       <c r="A555" s="9">
         <v>100040.0</v>
       </c>
@@ -40154,7 +40154,7 @@
       <c r="W555" s="17"/>
       <c r="X555" s="17"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" ht="15.75" hidden="1" customHeight="1">
       <c r="A556" s="9">
         <v>100044.0</v>
       </c>
@@ -40217,7 +40217,7 @@
       <c r="W556" s="17"/>
       <c r="X556" s="17"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" ht="15.75" hidden="1" customHeight="1">
       <c r="A557" s="9">
         <v>100046.0</v>
       </c>
@@ -40280,7 +40280,7 @@
       <c r="W557" s="17"/>
       <c r="X557" s="17"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" ht="15.75" hidden="1" customHeight="1">
       <c r="A558" s="9">
         <v>100051.0</v>
       </c>
@@ -40343,7 +40343,7 @@
       <c r="W558" s="17"/>
       <c r="X558" s="17"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" ht="15.75" hidden="1" customHeight="1">
       <c r="A559" s="9">
         <v>100045.0</v>
       </c>
@@ -40406,7 +40406,7 @@
       <c r="W559" s="21"/>
       <c r="X559" s="21"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" ht="15.75" hidden="1" customHeight="1">
       <c r="A560" s="9">
         <v>100049.0</v>
       </c>
@@ -40469,7 +40469,7 @@
       <c r="W560" s="17"/>
       <c r="X560" s="17"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" ht="15.75" hidden="1" customHeight="1">
       <c r="A561" s="9">
         <v>100047.0</v>
       </c>
@@ -40532,7 +40532,7 @@
       <c r="W561" s="17"/>
       <c r="X561" s="17"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" ht="15.75" hidden="1" customHeight="1">
       <c r="A562" s="9">
         <v>100048.0</v>
       </c>
@@ -40595,7 +40595,7 @@
       <c r="W562" s="17"/>
       <c r="X562" s="17"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" ht="15.75" hidden="1" customHeight="1">
       <c r="A563" s="9">
         <v>100050.0</v>
       </c>
@@ -40658,7 +40658,7 @@
       <c r="W563" s="17"/>
       <c r="X563" s="17"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" ht="15.75" hidden="1" customHeight="1">
       <c r="A564" s="9">
         <v>104578.0</v>
       </c>
@@ -40721,7 +40721,7 @@
       <c r="W564" s="17"/>
       <c r="X564" s="17"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" ht="15.75" hidden="1" customHeight="1">
       <c r="A565" s="9">
         <v>104565.0</v>
       </c>
@@ -40784,7 +40784,7 @@
       <c r="W565" s="17"/>
       <c r="X565" s="17"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" ht="15.75" hidden="1" customHeight="1">
       <c r="A566" s="9">
         <v>104579.0</v>
       </c>
@@ -40847,7 +40847,7 @@
       <c r="W566" s="17"/>
       <c r="X566" s="17"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" ht="15.75" hidden="1" customHeight="1">
       <c r="A567" s="9">
         <v>104580.0</v>
       </c>
@@ -40910,7 +40910,7 @@
       <c r="W567" s="17"/>
       <c r="X567" s="17"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" ht="15.75" hidden="1" customHeight="1">
       <c r="A568" s="9">
         <v>104581.0</v>
       </c>
@@ -40973,7 +40973,7 @@
       <c r="W568" s="17"/>
       <c r="X568" s="17"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" ht="15.75" hidden="1" customHeight="1">
       <c r="A569" s="9">
         <v>104582.0</v>
       </c>
@@ -41036,7 +41036,7 @@
       <c r="W569" s="17"/>
       <c r="X569" s="17"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" ht="15.75" hidden="1" customHeight="1">
       <c r="A570" s="9">
         <v>104583.0</v>
       </c>
@@ -41099,7 +41099,7 @@
       <c r="W570" s="17"/>
       <c r="X570" s="17"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" ht="15.75" hidden="1" customHeight="1">
       <c r="A571" s="9">
         <v>104564.0</v>
       </c>
@@ -41162,7 +41162,7 @@
       <c r="W571" s="17"/>
       <c r="X571" s="17"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" ht="15.75" hidden="1" customHeight="1">
       <c r="A572" s="9">
         <v>99301.0</v>
       </c>
@@ -41225,7 +41225,7 @@
       <c r="W572" s="17"/>
       <c r="X572" s="17"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" ht="15.75" hidden="1" customHeight="1">
       <c r="A573" s="9">
         <v>99302.0</v>
       </c>
@@ -41288,7 +41288,7 @@
       <c r="W573" s="17"/>
       <c r="X573" s="17"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" ht="15.75" hidden="1" customHeight="1">
       <c r="A574" s="9">
         <v>99298.0</v>
       </c>
@@ -41351,7 +41351,7 @@
       <c r="W574" s="17"/>
       <c r="X574" s="17"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" ht="15.75" hidden="1" customHeight="1">
       <c r="A575" s="9">
         <v>99297.0</v>
       </c>
@@ -41414,7 +41414,7 @@
       <c r="W575" s="17"/>
       <c r="X575" s="17"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" ht="15.75" hidden="1" customHeight="1">
       <c r="A576" s="9">
         <v>99303.0</v>
       </c>
@@ -41477,7 +41477,7 @@
       <c r="W576" s="17"/>
       <c r="X576" s="17"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" ht="15.75" hidden="1" customHeight="1">
       <c r="A577" s="9">
         <v>99299.0</v>
       </c>
@@ -41540,7 +41540,7 @@
       <c r="W577" s="17"/>
       <c r="X577" s="17"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" ht="15.75" hidden="1" customHeight="1">
       <c r="A578" s="9">
         <v>99300.0</v>
       </c>
@@ -41603,7 +41603,7 @@
       <c r="W578" s="17"/>
       <c r="X578" s="17"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" ht="15.75" hidden="1" customHeight="1">
       <c r="A579" s="9">
         <v>99552.0</v>
       </c>
@@ -41666,7 +41666,7 @@
       <c r="W579" s="17"/>
       <c r="X579" s="17"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" ht="15.75" hidden="1" customHeight="1">
       <c r="A580" s="9">
         <v>99548.0</v>
       </c>
@@ -41729,7 +41729,7 @@
       <c r="W580" s="17"/>
       <c r="X580" s="17"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" ht="15.75" hidden="1" customHeight="1">
       <c r="A581" s="9">
         <v>99550.0</v>
       </c>
@@ -41792,7 +41792,7 @@
       <c r="W581" s="17"/>
       <c r="X581" s="17"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" ht="15.75" hidden="1" customHeight="1">
       <c r="A582" s="9">
         <v>99553.0</v>
       </c>
@@ -41855,7 +41855,7 @@
       <c r="W582" s="17"/>
       <c r="X582" s="17"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" ht="15.75" hidden="1" customHeight="1">
       <c r="A583" s="9">
         <v>99551.0</v>
       </c>
@@ -41918,7 +41918,7 @@
       <c r="W583" s="17"/>
       <c r="X583" s="17"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" ht="15.75" hidden="1" customHeight="1">
       <c r="A584" s="9">
         <v>99549.0</v>
       </c>
@@ -41981,7 +41981,7 @@
       <c r="W584" s="17"/>
       <c r="X584" s="17"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" ht="15.75" hidden="1" customHeight="1">
       <c r="A585" s="9">
         <v>99538.0</v>
       </c>
@@ -42044,7 +42044,7 @@
       <c r="W585" s="17"/>
       <c r="X585" s="17"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" ht="15.75" hidden="1" customHeight="1">
       <c r="A586" s="9">
         <v>99539.0</v>
       </c>
@@ -42107,7 +42107,7 @@
       <c r="W586" s="17"/>
       <c r="X586" s="17"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" ht="15.75" hidden="1" customHeight="1">
       <c r="A587" s="9">
         <v>99536.0</v>
       </c>
@@ -42170,7 +42170,7 @@
       <c r="W587" s="17"/>
       <c r="X587" s="17"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" ht="15.75" hidden="1" customHeight="1">
       <c r="A588" s="9">
         <v>99540.0</v>
       </c>
@@ -42233,7 +42233,7 @@
       <c r="W588" s="17"/>
       <c r="X588" s="17"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" ht="15.75" hidden="1" customHeight="1">
       <c r="A589" s="9">
         <v>99537.0</v>
       </c>
@@ -42296,7 +42296,7 @@
       <c r="W589" s="17"/>
       <c r="X589" s="17"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" ht="15.75" hidden="1" customHeight="1">
       <c r="A590" s="9">
         <v>99541.0</v>
       </c>
@@ -42359,7 +42359,7 @@
       <c r="W590" s="17"/>
       <c r="X590" s="17"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" ht="15.75" hidden="1" customHeight="1">
       <c r="A591" s="9">
         <v>99545.0</v>
       </c>
@@ -42422,7 +42422,7 @@
       <c r="W591" s="17"/>
       <c r="X591" s="17"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" ht="15.75" hidden="1" customHeight="1">
       <c r="A592" s="9">
         <v>99546.0</v>
       </c>
@@ -42485,7 +42485,7 @@
       <c r="W592" s="17"/>
       <c r="X592" s="17"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" ht="15.75" hidden="1" customHeight="1">
       <c r="A593" s="9">
         <v>99542.0</v>
       </c>
@@ -42548,7 +42548,7 @@
       <c r="W593" s="17"/>
       <c r="X593" s="17"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" ht="15.75" hidden="1" customHeight="1">
       <c r="A594" s="9">
         <v>99544.0</v>
       </c>
@@ -42611,7 +42611,7 @@
       <c r="W594" s="17"/>
       <c r="X594" s="17"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" ht="15.75" hidden="1" customHeight="1">
       <c r="A595" s="9">
         <v>99547.0</v>
       </c>
@@ -42674,7 +42674,7 @@
       <c r="W595" s="17"/>
       <c r="X595" s="17"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" ht="15.75" hidden="1" customHeight="1">
       <c r="A596" s="9">
         <v>99543.0</v>
       </c>
@@ -42738,7 +42738,13 @@
       <c r="X596" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$596"/>
+  <autoFilter ref="$A$1:$O$596">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="J1:O596">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>"F!1:999"</formula>
